--- a/aplicacao/isencao.xlsx
+++ b/aplicacao/isencao.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
   <si>
     <t>pdv</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Serial</t>
   </si>
   <si>
-    <t>dataisencao</t>
+    <t>527-270-238</t>
   </si>
 </sst>
 </file>
@@ -74,7 +74,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -85,15 +85,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -375,23 +366,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFA678"/>
+  <dimension ref="A1:XFA663"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D101"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16381" width="19.85546875" hidden="1"/>
+    <col min="4" max="16381" width="19.85546875" hidden="1"/>
     <col min="16382" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -401,171 +391,226 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="4"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="4"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="4"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="4"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="4"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>1360</v>
+      </c>
+      <c r="C2" s="4">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1360</v>
+      </c>
+      <c r="C3" s="4">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1360</v>
+      </c>
+      <c r="C4" s="4">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1360</v>
+      </c>
+      <c r="C5" s="4">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1360</v>
+      </c>
+      <c r="C6" s="4">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1360</v>
+      </c>
+      <c r="C7" s="4">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1360</v>
+      </c>
+      <c r="C8" s="4">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1360</v>
+      </c>
+      <c r="C9" s="4">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1360</v>
+      </c>
+      <c r="C10" s="4">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1360</v>
+      </c>
+      <c r="C11" s="4">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="4"/>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="4"/>
-      <c r="D43" s="7"/>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="4"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
@@ -2412,51 +2457,6 @@
     </row>
     <row r="663" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C663" s="4"/>
-    </row>
-    <row r="664" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C664" s="4"/>
-    </row>
-    <row r="665" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C665" s="4"/>
-    </row>
-    <row r="666" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C666" s="4"/>
-    </row>
-    <row r="667" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C667" s="4"/>
-    </row>
-    <row r="668" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C668" s="4"/>
-    </row>
-    <row r="669" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C669" s="4"/>
-    </row>
-    <row r="670" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C670" s="4"/>
-    </row>
-    <row r="671" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C671" s="4"/>
-    </row>
-    <row r="672" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C672" s="4"/>
-    </row>
-    <row r="673" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C673" s="4"/>
-    </row>
-    <row r="674" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C674" s="4"/>
-    </row>
-    <row r="675" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C675" s="4"/>
-    </row>
-    <row r="676" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C676" s="4"/>
-    </row>
-    <row r="677" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C677" s="4"/>
-    </row>
-    <row r="678" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C678" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aplicacao/isencao.xlsx
+++ b/aplicacao/isencao.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>pdv</t>
   </si>
@@ -30,7 +30,202 @@
     <t>Serial</t>
   </si>
   <si>
-    <t>527-270-238</t>
+    <t>541-361-159</t>
+  </si>
+  <si>
+    <t>541-360-944</t>
+  </si>
+  <si>
+    <t>541-557-311</t>
+  </si>
+  <si>
+    <t>541-545-025</t>
+  </si>
+  <si>
+    <t>527-600-551</t>
+  </si>
+  <si>
+    <t>527-624-558</t>
+  </si>
+  <si>
+    <t>527-624-455</t>
+  </si>
+  <si>
+    <t>6P150283</t>
+  </si>
+  <si>
+    <t>6P150498</t>
+  </si>
+  <si>
+    <t>6P150624</t>
+  </si>
+  <si>
+    <t>541-360-927</t>
+  </si>
+  <si>
+    <t>525-890-521</t>
+  </si>
+  <si>
+    <t>525-891-173</t>
+  </si>
+  <si>
+    <t>6P150131</t>
+  </si>
+  <si>
+    <t>527-624-121</t>
+  </si>
+  <si>
+    <t>527-624-366</t>
+  </si>
+  <si>
+    <t>527-601-087</t>
+  </si>
+  <si>
+    <t>541-360-894</t>
+  </si>
+  <si>
+    <t>6P150729</t>
+  </si>
+  <si>
+    <t>6P149726</t>
+  </si>
+  <si>
+    <t>527-624-501</t>
+  </si>
+  <si>
+    <t>527-624-772</t>
+  </si>
+  <si>
+    <t>6P149109</t>
+  </si>
+  <si>
+    <t>541-361-597</t>
+  </si>
+  <si>
+    <t>527-624-688</t>
+  </si>
+  <si>
+    <t>527-624-982</t>
+  </si>
+  <si>
+    <t>541-361-796</t>
+  </si>
+  <si>
+    <t>6P150801</t>
+  </si>
+  <si>
+    <t>541-374-262</t>
+  </si>
+  <si>
+    <t>541-362-069</t>
+  </si>
+  <si>
+    <t>541-373-883</t>
+  </si>
+  <si>
+    <t>541-361-653</t>
+  </si>
+  <si>
+    <t>541-373-970</t>
+  </si>
+  <si>
+    <t>541-361-120</t>
+  </si>
+  <si>
+    <t>6P149670</t>
+  </si>
+  <si>
+    <t>541-362-294</t>
+  </si>
+  <si>
+    <t>541-361-657</t>
+  </si>
+  <si>
+    <t>526-622-551</t>
+  </si>
+  <si>
+    <t>527-625-110</t>
+  </si>
+  <si>
+    <t>541-361-520</t>
+  </si>
+  <si>
+    <t>541-374-303</t>
+  </si>
+  <si>
+    <t>541-544-546</t>
+  </si>
+  <si>
+    <t>6P151069</t>
+  </si>
+  <si>
+    <t>525-891-061</t>
+  </si>
+  <si>
+    <t>541-544-799</t>
+  </si>
+  <si>
+    <t>541-557-466</t>
+  </si>
+  <si>
+    <t>541-362-193</t>
+  </si>
+  <si>
+    <t>527-624-168</t>
+  </si>
+  <si>
+    <t>527-624-184</t>
+  </si>
+  <si>
+    <t>541-557-720</t>
+  </si>
+  <si>
+    <t>526-622-562</t>
+  </si>
+  <si>
+    <t>527-600-909</t>
+  </si>
+  <si>
+    <t>541-362-215</t>
+  </si>
+  <si>
+    <t>525-890-953</t>
+  </si>
+  <si>
+    <t>526-622-358</t>
+  </si>
+  <si>
+    <t>527-270-469</t>
+  </si>
+  <si>
+    <t>541-361-492</t>
+  </si>
+  <si>
+    <t>527-624-364</t>
+  </si>
+  <si>
+    <t>6P149627</t>
+  </si>
+  <si>
+    <t>527-601-100</t>
+  </si>
+  <si>
+    <t>6P149985</t>
+  </si>
+  <si>
+    <t>527-270-312</t>
+  </si>
+  <si>
+    <t>527-600-545</t>
+  </si>
+  <si>
+    <t>526-622-685</t>
+  </si>
+  <si>
+    <t>526-622-586</t>
+  </si>
+  <si>
+    <t>6P149730</t>
   </si>
 </sst>
 </file>
@@ -366,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFA663"/>
+  <dimension ref="A1:XFA659"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,62 +592,62 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>1360</v>
+        <v>15264</v>
       </c>
       <c r="C2" s="4">
-        <v>99.9</v>
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>1360</v>
+        <v>20904</v>
       </c>
       <c r="C3" s="4">
-        <v>99.9</v>
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>1360</v>
+        <v>23737</v>
       </c>
       <c r="C4" s="4">
-        <v>99.9</v>
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>1360</v>
+        <v>25802</v>
       </c>
       <c r="C5" s="4">
-        <v>99.9</v>
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>1360</v>
+        <v>26965</v>
       </c>
       <c r="C6" s="4">
-        <v>99.9</v>
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>1360</v>
+        <v>28101</v>
       </c>
       <c r="C7" s="4">
         <v>99.9</v>
@@ -460,253 +655,781 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>1360</v>
+        <v>28214</v>
       </c>
       <c r="C8" s="4">
-        <v>99.9</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>1360</v>
+        <v>28214</v>
       </c>
       <c r="C9" s="4">
-        <v>99.9</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>1360</v>
+        <v>28214</v>
       </c>
       <c r="C10" s="4">
-        <v>99.9</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>1360</v>
+        <v>28214</v>
       </c>
       <c r="C11" s="4">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>28731</v>
+      </c>
+      <c r="C12" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>29621</v>
+      </c>
+      <c r="C13" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>31097</v>
+      </c>
+      <c r="C14" s="4">
         <v>99.9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="4"/>
-    </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="4"/>
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <v>31670</v>
+      </c>
+      <c r="C15" s="4">
+        <v>99.9</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="4"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="4"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="4"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="4"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="4"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="4"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="4"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="4"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="4"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="4"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="4"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="4"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="4"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="4"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="4"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="4"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="4"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="4"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="4"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="4"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="4"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>33489</v>
+      </c>
+      <c r="C16" s="4">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <v>34449</v>
+      </c>
+      <c r="C17" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1">
+        <v>34521</v>
+      </c>
+      <c r="C18" s="4">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
+        <v>34521</v>
+      </c>
+      <c r="C19" s="4">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1">
+        <v>34914</v>
+      </c>
+      <c r="C20" s="4">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1">
+        <v>36171</v>
+      </c>
+      <c r="C21" s="4">
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
+        <v>41355</v>
+      </c>
+      <c r="C22" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1">
+        <v>41355</v>
+      </c>
+      <c r="C23" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>41406</v>
+      </c>
+      <c r="C24" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1">
+        <v>41583</v>
+      </c>
+      <c r="C25" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1">
+        <v>41692</v>
+      </c>
+      <c r="C26" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1">
+        <v>41747</v>
+      </c>
+      <c r="C27" s="4">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1">
+        <v>42211</v>
+      </c>
+      <c r="C28" s="4">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1">
+        <v>42275</v>
+      </c>
+      <c r="C29" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1">
+        <v>42285</v>
+      </c>
+      <c r="C30" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1">
+        <v>42351</v>
+      </c>
+      <c r="C31" s="4">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1">
+        <v>42502</v>
+      </c>
+      <c r="C32" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1">
+        <v>42510</v>
+      </c>
+      <c r="C33" s="4">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1">
+        <v>43139</v>
+      </c>
+      <c r="C34" s="4">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1">
+        <v>43248</v>
+      </c>
+      <c r="C35" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1">
+        <v>43250</v>
+      </c>
+      <c r="C36" s="4">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>1470586355</v>
+      </c>
+      <c r="B37" s="1">
+        <v>43360</v>
+      </c>
+      <c r="C37" s="4">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1">
+        <v>43469</v>
+      </c>
+      <c r="C38" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1">
+        <v>44182</v>
+      </c>
+      <c r="C39" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45034</v>
+      </c>
+      <c r="C40" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45034</v>
+      </c>
+      <c r="C41" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45066</v>
+      </c>
+      <c r="C42" s="4">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1">
+        <v>46310</v>
+      </c>
+      <c r="C43" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1">
+        <v>46400</v>
+      </c>
+      <c r="C44" s="4">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1">
+        <v>46408</v>
+      </c>
+      <c r="C45" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>1470586397</v>
+      </c>
+      <c r="B46" s="1">
+        <v>46578</v>
+      </c>
+      <c r="C46" s="4">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>46655</v>
+      </c>
+      <c r="C47" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>46696</v>
+      </c>
+      <c r="C48" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>1470586163</v>
+      </c>
+      <c r="B49" s="1">
+        <v>47221</v>
+      </c>
+      <c r="C49" s="4">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>47251</v>
+      </c>
+      <c r="C50" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>47942</v>
+      </c>
+      <c r="C51" s="4">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>47953</v>
+      </c>
+      <c r="C52" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>48282</v>
+      </c>
+      <c r="C53" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>1470586692</v>
+      </c>
+      <c r="B54" s="1">
+        <v>48517</v>
+      </c>
+      <c r="C54" s="4">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="1">
+        <v>48517</v>
+      </c>
+      <c r="C55" s="4">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>1470586441</v>
+      </c>
+      <c r="B56" s="1">
+        <v>48557</v>
+      </c>
+      <c r="C56" s="4">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="1">
+        <v>48557</v>
+      </c>
+      <c r="C57" s="4">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="1">
+        <v>48759</v>
+      </c>
+      <c r="C58" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="1">
+        <v>48785</v>
+      </c>
+      <c r="C59" s="4">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="1">
+        <v>48796</v>
+      </c>
+      <c r="C60" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="1">
+        <v>48889</v>
+      </c>
+      <c r="C61" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>1470586898</v>
+      </c>
+      <c r="B62" s="1">
+        <v>48907</v>
+      </c>
+      <c r="C62" s="4">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>1470586299</v>
+      </c>
+      <c r="B63" s="1">
+        <v>48965</v>
+      </c>
+      <c r="C63" s="4">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="1">
+        <v>48966</v>
+      </c>
+      <c r="C64" s="4">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="1">
+        <v>49538</v>
+      </c>
+      <c r="C65" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="1">
+        <v>50246</v>
+      </c>
+      <c r="C66" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="1">
+        <v>50246</v>
+      </c>
+      <c r="C67" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>1470586022</v>
+      </c>
+      <c r="B68" s="1">
+        <v>50406</v>
+      </c>
+      <c r="C68" s="4">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>1470586684</v>
+      </c>
+      <c r="B69" s="1">
+        <v>50406</v>
+      </c>
+      <c r="C69" s="4">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" s="1">
+        <v>50411</v>
+      </c>
+      <c r="C70" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" s="1">
+        <v>50645</v>
+      </c>
+      <c r="C71" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="1">
+        <v>50718</v>
+      </c>
+      <c r="C72" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" s="1">
+        <v>50718</v>
+      </c>
+      <c r="C73" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" s="1">
+        <v>51005</v>
+      </c>
+      <c r="C74" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="1">
+        <v>51239</v>
+      </c>
+      <c r="C75" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>1470586474</v>
+      </c>
+      <c r="B76" s="1">
+        <v>52324</v>
+      </c>
+      <c r="C76" s="4">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B77" s="1">
+        <v>52546</v>
+      </c>
+      <c r="C77" s="4">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C78" s="4"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C79" s="4"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C80" s="4"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
@@ -2445,18 +3168,6 @@
     </row>
     <row r="659" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C659" s="4"/>
-    </row>
-    <row r="660" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C660" s="4"/>
-    </row>
-    <row r="661" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C661" s="4"/>
-    </row>
-    <row r="662" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C662" s="4"/>
-    </row>
-    <row r="663" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C663" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aplicacao/isencao.xlsx
+++ b/aplicacao/isencao.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
   <si>
     <t>pdv</t>
   </si>
@@ -30,202 +30,7 @@
     <t>Serial</t>
   </si>
   <si>
-    <t>541-361-159</t>
-  </si>
-  <si>
-    <t>541-360-944</t>
-  </si>
-  <si>
-    <t>541-557-311</t>
-  </si>
-  <si>
-    <t>541-545-025</t>
-  </si>
-  <si>
-    <t>527-600-551</t>
-  </si>
-  <si>
-    <t>527-624-558</t>
-  </si>
-  <si>
-    <t>527-624-455</t>
-  </si>
-  <si>
-    <t>6P150283</t>
-  </si>
-  <si>
-    <t>6P150498</t>
-  </si>
-  <si>
-    <t>6P150624</t>
-  </si>
-  <si>
-    <t>541-360-927</t>
-  </si>
-  <si>
-    <t>525-890-521</t>
-  </si>
-  <si>
-    <t>525-891-173</t>
-  </si>
-  <si>
-    <t>6P150131</t>
-  </si>
-  <si>
-    <t>527-624-121</t>
-  </si>
-  <si>
-    <t>527-624-366</t>
-  </si>
-  <si>
-    <t>527-601-087</t>
-  </si>
-  <si>
-    <t>541-360-894</t>
-  </si>
-  <si>
-    <t>6P150729</t>
-  </si>
-  <si>
-    <t>6P149726</t>
-  </si>
-  <si>
-    <t>527-624-501</t>
-  </si>
-  <si>
-    <t>527-624-772</t>
-  </si>
-  <si>
-    <t>6P149109</t>
-  </si>
-  <si>
-    <t>541-361-597</t>
-  </si>
-  <si>
-    <t>527-624-688</t>
-  </si>
-  <si>
-    <t>527-624-982</t>
-  </si>
-  <si>
-    <t>541-361-796</t>
-  </si>
-  <si>
-    <t>6P150801</t>
-  </si>
-  <si>
-    <t>541-374-262</t>
-  </si>
-  <si>
-    <t>541-362-069</t>
-  </si>
-  <si>
-    <t>541-373-883</t>
-  </si>
-  <si>
-    <t>541-361-653</t>
-  </si>
-  <si>
-    <t>541-373-970</t>
-  </si>
-  <si>
-    <t>541-361-120</t>
-  </si>
-  <si>
-    <t>6P149670</t>
-  </si>
-  <si>
-    <t>541-362-294</t>
-  </si>
-  <si>
-    <t>541-361-657</t>
-  </si>
-  <si>
-    <t>526-622-551</t>
-  </si>
-  <si>
-    <t>527-625-110</t>
-  </si>
-  <si>
-    <t>541-361-520</t>
-  </si>
-  <si>
-    <t>541-374-303</t>
-  </si>
-  <si>
-    <t>541-544-546</t>
-  </si>
-  <si>
-    <t>6P151069</t>
-  </si>
-  <si>
-    <t>525-891-061</t>
-  </si>
-  <si>
-    <t>541-544-799</t>
-  </si>
-  <si>
-    <t>541-557-466</t>
-  </si>
-  <si>
-    <t>541-362-193</t>
-  </si>
-  <si>
-    <t>527-624-168</t>
-  </si>
-  <si>
-    <t>527-624-184</t>
-  </si>
-  <si>
-    <t>541-557-720</t>
-  </si>
-  <si>
-    <t>526-622-562</t>
-  </si>
-  <si>
-    <t>527-600-909</t>
-  </si>
-  <si>
-    <t>541-362-215</t>
-  </si>
-  <si>
-    <t>525-890-953</t>
-  </si>
-  <si>
-    <t>526-622-358</t>
-  </si>
-  <si>
-    <t>527-270-469</t>
-  </si>
-  <si>
-    <t>541-361-492</t>
-  </si>
-  <si>
-    <t>527-624-364</t>
-  </si>
-  <si>
-    <t>6P149627</t>
-  </si>
-  <si>
-    <t>527-601-100</t>
-  </si>
-  <si>
-    <t>6P149985</t>
-  </si>
-  <si>
-    <t>527-270-312</t>
-  </si>
-  <si>
-    <t>527-600-545</t>
-  </si>
-  <si>
-    <t>526-622-685</t>
-  </si>
-  <si>
-    <t>526-622-586</t>
-  </si>
-  <si>
-    <t>6P149730</t>
+    <t>526-622-584</t>
   </si>
 </sst>
 </file>
@@ -563,8 +368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFA659"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +397,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>15264</v>
+        <v>1360</v>
       </c>
       <c r="C2" s="4">
         <v>69.900000000000006</v>
@@ -600,10 +405,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>20904</v>
+        <v>1360</v>
       </c>
       <c r="C3" s="4">
         <v>69.900000000000006</v>
@@ -611,10 +416,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>23737</v>
+        <v>1360</v>
       </c>
       <c r="C4" s="4">
         <v>69.900000000000006</v>
@@ -622,10 +427,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>25802</v>
+        <v>1360</v>
       </c>
       <c r="C5" s="4">
         <v>69.900000000000006</v>
@@ -633,10 +438,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>26965</v>
+        <v>1360</v>
       </c>
       <c r="C6" s="4">
         <v>69.900000000000006</v>
@@ -644,792 +449,272 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>28101</v>
+        <v>1360</v>
       </c>
       <c r="C7" s="4">
-        <v>99.9</v>
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>28214</v>
+        <v>1360</v>
       </c>
       <c r="C8" s="4">
-        <v>24.9</v>
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>28214</v>
+        <v>1360</v>
       </c>
       <c r="C9" s="4">
-        <v>24.9</v>
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>28214</v>
+        <v>1360</v>
       </c>
       <c r="C10" s="4">
-        <v>24.9</v>
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
-        <v>28214</v>
+        <v>1360</v>
       </c>
       <c r="C11" s="4">
-        <v>24.9</v>
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1">
-        <v>28731</v>
+        <v>1360</v>
       </c>
       <c r="C12" s="4">
         <v>69.900000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1">
-        <v>29621</v>
-      </c>
-      <c r="C13" s="4">
-        <v>69.900000000000006</v>
-      </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1">
-        <v>31097</v>
-      </c>
-      <c r="C14" s="4">
-        <v>99.9</v>
-      </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1">
-        <v>31670</v>
-      </c>
-      <c r="C15" s="4">
-        <v>99.9</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1">
-        <v>33489</v>
-      </c>
-      <c r="C16" s="4">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1">
-        <v>34449</v>
-      </c>
-      <c r="C17" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1">
-        <v>34521</v>
-      </c>
-      <c r="C18" s="4">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1">
-        <v>34521</v>
-      </c>
-      <c r="C19" s="4">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1">
-        <v>34914</v>
-      </c>
-      <c r="C20" s="4">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1">
-        <v>36171</v>
-      </c>
-      <c r="C21" s="4">
-        <v>79.900000000000006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1">
-        <v>41355</v>
-      </c>
-      <c r="C22" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1">
-        <v>41355</v>
-      </c>
-      <c r="C23" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1">
-        <v>41406</v>
-      </c>
-      <c r="C24" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="1">
-        <v>41583</v>
-      </c>
-      <c r="C25" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1">
-        <v>41692</v>
-      </c>
-      <c r="C26" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="1">
-        <v>41747</v>
-      </c>
-      <c r="C27" s="4">
-        <v>49.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="1">
-        <v>42211</v>
-      </c>
-      <c r="C28" s="4">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="1">
-        <v>42275</v>
-      </c>
-      <c r="C29" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="1">
-        <v>42285</v>
-      </c>
-      <c r="C30" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="1">
-        <v>42351</v>
-      </c>
-      <c r="C31" s="4">
-        <v>59.9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="1">
-        <v>42502</v>
-      </c>
-      <c r="C32" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="1">
-        <v>42510</v>
-      </c>
-      <c r="C33" s="4">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="1">
-        <v>43139</v>
-      </c>
-      <c r="C34" s="4">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="1">
-        <v>43248</v>
-      </c>
-      <c r="C35" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="1">
-        <v>43250</v>
-      </c>
-      <c r="C36" s="4">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>1470586355</v>
-      </c>
-      <c r="B37" s="1">
-        <v>43360</v>
-      </c>
-      <c r="C37" s="4">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="1">
-        <v>43469</v>
-      </c>
-      <c r="C38" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="1">
-        <v>44182</v>
-      </c>
-      <c r="C39" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="1">
-        <v>45034</v>
-      </c>
-      <c r="C40" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="1">
-        <v>45034</v>
-      </c>
-      <c r="C41" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="1">
-        <v>45066</v>
-      </c>
-      <c r="C42" s="4">
-        <v>59.9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="1">
-        <v>46310</v>
-      </c>
-      <c r="C43" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="1">
-        <v>46400</v>
-      </c>
-      <c r="C44" s="4">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="1">
-        <v>46408</v>
-      </c>
-      <c r="C45" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>1470586397</v>
-      </c>
-      <c r="B46" s="1">
-        <v>46578</v>
-      </c>
-      <c r="C46" s="4">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1">
-        <v>46655</v>
-      </c>
-      <c r="C47" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1">
-        <v>46696</v>
-      </c>
-      <c r="C48" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>1470586163</v>
-      </c>
-      <c r="B49" s="1">
-        <v>47221</v>
-      </c>
-      <c r="C49" s="4">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="1">
-        <v>47251</v>
-      </c>
-      <c r="C50" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="1">
-        <v>47942</v>
-      </c>
-      <c r="C51" s="4">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="1">
-        <v>47953</v>
-      </c>
-      <c r="C52" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="1">
-        <v>48282</v>
-      </c>
-      <c r="C53" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>1470586692</v>
-      </c>
-      <c r="B54" s="1">
-        <v>48517</v>
-      </c>
-      <c r="C54" s="4">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="1">
-        <v>48517</v>
-      </c>
-      <c r="C55" s="4">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>1470586441</v>
-      </c>
-      <c r="B56" s="1">
-        <v>48557</v>
-      </c>
-      <c r="C56" s="4">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B57" s="1">
-        <v>48557</v>
-      </c>
-      <c r="C57" s="4">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="1">
-        <v>48759</v>
-      </c>
-      <c r="C58" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="1">
-        <v>48785</v>
-      </c>
-      <c r="C59" s="4">
-        <v>49.9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="1">
-        <v>48796</v>
-      </c>
-      <c r="C60" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B61" s="1">
-        <v>48889</v>
-      </c>
-      <c r="C61" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>1470586898</v>
-      </c>
-      <c r="B62" s="1">
-        <v>48907</v>
-      </c>
-      <c r="C62" s="4">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>1470586299</v>
-      </c>
-      <c r="B63" s="1">
-        <v>48965</v>
-      </c>
-      <c r="C63" s="4">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="1">
-        <v>48966</v>
-      </c>
-      <c r="C64" s="4">
-        <v>49.9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B65" s="1">
-        <v>49538</v>
-      </c>
-      <c r="C65" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66" s="1">
-        <v>50246</v>
-      </c>
-      <c r="C66" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B67" s="1">
-        <v>50246</v>
-      </c>
-      <c r="C67" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>1470586022</v>
-      </c>
-      <c r="B68" s="1">
-        <v>50406</v>
-      </c>
-      <c r="C68" s="4">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>1470586684</v>
-      </c>
-      <c r="B69" s="1">
-        <v>50406</v>
-      </c>
-      <c r="C69" s="4">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B70" s="1">
-        <v>50411</v>
-      </c>
-      <c r="C70" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" s="1">
-        <v>50645</v>
-      </c>
-      <c r="C71" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B72" s="1">
-        <v>50718</v>
-      </c>
-      <c r="C72" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B73" s="1">
-        <v>50718</v>
-      </c>
-      <c r="C73" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B74" s="1">
-        <v>51005</v>
-      </c>
-      <c r="C74" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B75" s="1">
-        <v>51239</v>
-      </c>
-      <c r="C75" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>1470586474</v>
-      </c>
-      <c r="B76" s="1">
-        <v>52324</v>
-      </c>
-      <c r="C76" s="4">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B77" s="1">
-        <v>52546</v>
-      </c>
-      <c r="C77" s="4">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="4"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="4"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="4"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="4"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="4"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="4"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="4"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">

--- a/aplicacao/isencao.xlsx
+++ b/aplicacao/isencao.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>pdv</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>Serial</t>
-  </si>
-  <si>
-    <t>526-622-584</t>
   </si>
 </sst>
 </file>
@@ -369,7 +366,7 @@
   <dimension ref="A1:XFA659"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C12"/>
+      <selection activeCell="A2" sqref="A2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,125 +390,37 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1360</v>
-      </c>
-      <c r="C2" s="4">
-        <v>69.900000000000006</v>
-      </c>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1360</v>
-      </c>
-      <c r="C3" s="4">
-        <v>69.900000000000006</v>
-      </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1360</v>
-      </c>
-      <c r="C4" s="4">
-        <v>69.900000000000006</v>
-      </c>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1360</v>
-      </c>
-      <c r="C5" s="4">
-        <v>69.900000000000006</v>
-      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1360</v>
-      </c>
-      <c r="C6" s="4">
-        <v>69.900000000000006</v>
-      </c>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1360</v>
-      </c>
-      <c r="C7" s="4">
-        <v>69.900000000000006</v>
-      </c>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1360</v>
-      </c>
-      <c r="C8" s="4">
-        <v>69.900000000000006</v>
-      </c>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1360</v>
-      </c>
-      <c r="C9" s="4">
-        <v>69.900000000000006</v>
-      </c>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1360</v>
-      </c>
-      <c r="C10" s="4">
-        <v>69.900000000000006</v>
-      </c>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1360</v>
-      </c>
-      <c r="C11" s="4">
-        <v>69.900000000000006</v>
-      </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1360</v>
-      </c>
-      <c r="C12" s="4">
-        <v>69.900000000000006</v>
-      </c>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>

--- a/aplicacao/isencao.xlsx
+++ b/aplicacao/isencao.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$C$53</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>pdv</t>
   </si>
@@ -28,6 +31,132 @@
   </si>
   <si>
     <t>Serial</t>
+  </si>
+  <si>
+    <t>6P151398</t>
+  </si>
+  <si>
+    <t>527-600-569</t>
+  </si>
+  <si>
+    <t>527-624-155</t>
+  </si>
+  <si>
+    <t>541-361-973</t>
+  </si>
+  <si>
+    <t>6P150793</t>
+  </si>
+  <si>
+    <t>527-600-963</t>
+  </si>
+  <si>
+    <t>6P150199</t>
+  </si>
+  <si>
+    <t>527-624-756</t>
+  </si>
+  <si>
+    <t>541-361-842</t>
+  </si>
+  <si>
+    <t>527-624-205</t>
+  </si>
+  <si>
+    <t>541-361-645</t>
+  </si>
+  <si>
+    <t>6P150140</t>
+  </si>
+  <si>
+    <t>6P151035</t>
+  </si>
+  <si>
+    <t>541-361-353</t>
+  </si>
+  <si>
+    <t>6P149234</t>
+  </si>
+  <si>
+    <t>527-270-447</t>
+  </si>
+  <si>
+    <t>541-361-897</t>
+  </si>
+  <si>
+    <t>541-361-331</t>
+  </si>
+  <si>
+    <t>6P150030</t>
+  </si>
+  <si>
+    <t>541-362-190</t>
+  </si>
+  <si>
+    <t>541-361-753</t>
+  </si>
+  <si>
+    <t>541-361-946</t>
+  </si>
+  <si>
+    <t>541-361-415</t>
+  </si>
+  <si>
+    <t>541-361-800</t>
+  </si>
+  <si>
+    <t>541-361-917</t>
+  </si>
+  <si>
+    <t>527-624-730</t>
+  </si>
+  <si>
+    <t>541-361-915</t>
+  </si>
+  <si>
+    <t>541-361-354</t>
+  </si>
+  <si>
+    <t>541-557-404</t>
+  </si>
+  <si>
+    <t>541-557-471</t>
+  </si>
+  <si>
+    <t>6P150003</t>
+  </si>
+  <si>
+    <t>541-361-044</t>
+  </si>
+  <si>
+    <t>6P149342</t>
+  </si>
+  <si>
+    <t>525-891-181</t>
+  </si>
+  <si>
+    <t>6P149201</t>
+  </si>
+  <si>
+    <t>6P150089</t>
+  </si>
+  <si>
+    <t>6P150525</t>
+  </si>
+  <si>
+    <t>527-600-633</t>
+  </si>
+  <si>
+    <t>6P150713</t>
+  </si>
+  <si>
+    <t>526-622-216</t>
+  </si>
+  <si>
+    <t>527-600-601</t>
+  </si>
+  <si>
+    <t>6P150130</t>
   </si>
 </sst>
 </file>
@@ -71,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -79,7 +208,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -363,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFA659"/>
+  <dimension ref="A1:XFA654"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C12"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,11 +502,11 @@
     <col min="1" max="1" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16381" width="19.85546875" hidden="1"/>
-    <col min="16382" max="16384" width="9.140625" hidden="1"/>
+    <col min="4" max="16381" width="19.85546875" style="1" hidden="1"/>
+    <col min="16382" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -390,1978 +518,2379 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C2" s="4"/>
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>12924</v>
+      </c>
+      <c r="C2" s="1">
+        <v>99.9</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="4"/>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13413</v>
+      </c>
+      <c r="C3" s="1">
+        <v>69.900000000000006</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="4"/>
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>19646</v>
+      </c>
+      <c r="C4" s="1">
+        <v>69.900000000000006</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="4"/>
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>25309</v>
+      </c>
+      <c r="C5" s="1">
+        <v>79.900000000000006</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="4"/>
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>25309</v>
+      </c>
+      <c r="C6" s="1">
+        <v>79.900000000000006</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="4"/>
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>28698</v>
+      </c>
+      <c r="C7" s="1">
+        <v>99.9</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="4"/>
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>28990</v>
+      </c>
+      <c r="C8" s="1">
+        <v>69.900000000000006</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="4"/>
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>31570</v>
+      </c>
+      <c r="C9" s="1">
+        <v>69.900000000000006</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="4"/>
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>31599</v>
+      </c>
+      <c r="C10" s="1">
+        <v>69.900000000000006</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="4"/>
+      <c r="A11" s="1">
+        <v>1470586905</v>
+      </c>
+      <c r="B11" s="1">
+        <v>35565</v>
+      </c>
+      <c r="C11" s="1">
+        <v>19.899999999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="4"/>
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>38865</v>
+      </c>
+      <c r="C12" s="1">
+        <v>69.900000000000006</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="4"/>
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>40304</v>
+      </c>
+      <c r="C13" s="1">
+        <v>69.900000000000006</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="4"/>
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>40822</v>
+      </c>
+      <c r="C14" s="1">
+        <v>69.900000000000006</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="4"/>
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>40931</v>
+      </c>
+      <c r="C15" s="1">
+        <v>69.900000000000006</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="4"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="4"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="4"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="4"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="4"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="4"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="4"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="4"/>
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>41415</v>
+      </c>
+      <c r="C16" s="1">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>41494</v>
+      </c>
+      <c r="C17" s="1">
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>42575</v>
+      </c>
+      <c r="C18" s="1">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43396</v>
+      </c>
+      <c r="C19" s="1">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43422</v>
+      </c>
+      <c r="C20" s="1">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43797</v>
+      </c>
+      <c r="C21" s="1">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C22" s="1">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44343</v>
+      </c>
+      <c r="C23" s="1">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44496</v>
+      </c>
+      <c r="C24" s="1">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44563</v>
+      </c>
+      <c r="C25" s="1">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44596</v>
+      </c>
+      <c r="C26" s="1">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44756</v>
+      </c>
+      <c r="C27" s="1">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1">
+        <v>44938</v>
+      </c>
+      <c r="C28" s="1">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
+        <v>46225</v>
+      </c>
+      <c r="C29" s="1">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1">
+        <v>46482</v>
+      </c>
+      <c r="C30" s="1">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>1470586472</v>
+      </c>
+      <c r="B31" s="1">
+        <v>46838</v>
+      </c>
+      <c r="C31" s="1">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>47157</v>
+      </c>
+      <c r="C32" s="1">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>47712</v>
+      </c>
+      <c r="C33" s="1">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>47811</v>
+      </c>
+      <c r="C34" s="1">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>1470586382</v>
+      </c>
+      <c r="B35" s="1">
+        <v>47962</v>
+      </c>
+      <c r="C35" s="1">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>1470586974</v>
+      </c>
+      <c r="B36" s="1">
+        <v>48168</v>
+      </c>
+      <c r="C36" s="1">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1">
+        <v>48899</v>
+      </c>
+      <c r="C37" s="1">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1">
+        <v>48912</v>
+      </c>
+      <c r="C38" s="1">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1470586402</v>
+      </c>
+      <c r="B39" s="1">
+        <v>48961</v>
+      </c>
+      <c r="C39" s="1">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1">
+        <v>49564</v>
+      </c>
+      <c r="C40" s="1">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>1470586924</v>
+      </c>
+      <c r="B41" s="1">
+        <v>49568</v>
+      </c>
+      <c r="C41" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="1">
+        <v>49896</v>
+      </c>
+      <c r="C42" s="1">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="1">
+        <v>49896</v>
+      </c>
+      <c r="C43" s="1">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="1">
+        <v>49896</v>
+      </c>
+      <c r="C44" s="1">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="1">
+        <v>50460</v>
+      </c>
+      <c r="C45" s="1">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>1470586589</v>
+      </c>
+      <c r="B46" s="1">
+        <v>50923</v>
+      </c>
+      <c r="C46" s="1">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="1">
+        <v>51131</v>
+      </c>
+      <c r="C47" s="1">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="1">
+        <v>51281</v>
+      </c>
+      <c r="C48" s="1">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="1">
+        <v>51297</v>
+      </c>
+      <c r="C49" s="1">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>1470586437</v>
+      </c>
+      <c r="B50" s="1">
+        <v>51731</v>
+      </c>
+      <c r="C50" s="1">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="1">
+        <v>52264</v>
+      </c>
+      <c r="C51" s="1">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>1470586023</v>
+      </c>
+      <c r="B52" s="1">
+        <v>52892</v>
+      </c>
+      <c r="C52" s="1">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>1470586135</v>
+      </c>
+      <c r="B53" s="1">
+        <v>53580</v>
+      </c>
+      <c r="C53" s="1">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="3"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="4"/>
+      <c r="C65" s="3"/>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="4"/>
+      <c r="C66" s="3"/>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="4"/>
+      <c r="C67" s="3"/>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="4"/>
+      <c r="C68" s="3"/>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="4"/>
+      <c r="C69" s="3"/>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="4"/>
+      <c r="C70" s="3"/>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="4"/>
+      <c r="C71" s="3"/>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="4"/>
+      <c r="C72" s="3"/>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="4"/>
+      <c r="C73" s="3"/>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="4"/>
+      <c r="C74" s="3"/>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="4"/>
+      <c r="C75" s="3"/>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="4"/>
+      <c r="C76" s="3"/>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="4"/>
+      <c r="C77" s="3"/>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78" s="4"/>
+      <c r="C78" s="3"/>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79" s="4"/>
+      <c r="C79" s="3"/>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C80" s="4"/>
+      <c r="C80" s="3"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="4"/>
+      <c r="C81" s="3"/>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="4"/>
+      <c r="C82" s="3"/>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="4"/>
+      <c r="C83" s="3"/>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="4"/>
+      <c r="C84" s="3"/>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" s="4"/>
+      <c r="C85" s="3"/>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="4"/>
+      <c r="C86" s="3"/>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87" s="4"/>
+      <c r="C87" s="3"/>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88" s="4"/>
+      <c r="C88" s="3"/>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89" s="4"/>
+      <c r="C89" s="3"/>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90" s="4"/>
+      <c r="C90" s="3"/>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="4"/>
+      <c r="C91" s="3"/>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C92" s="4"/>
+      <c r="C92" s="3"/>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="4"/>
+      <c r="C93" s="3"/>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C94" s="4"/>
+      <c r="C94" s="3"/>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C95" s="4"/>
+      <c r="C95" s="3"/>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C96" s="4"/>
+      <c r="C96" s="3"/>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" s="4"/>
+      <c r="C97" s="3"/>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="4"/>
+      <c r="C98" s="3"/>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" s="4"/>
+      <c r="C99" s="3"/>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" s="4"/>
+      <c r="C100" s="3"/>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="4"/>
+      <c r="C101" s="3"/>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C102" s="4"/>
+      <c r="C102" s="3"/>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C103" s="4"/>
+      <c r="C103" s="3"/>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C104" s="4"/>
+      <c r="C104" s="3"/>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C105" s="4"/>
+      <c r="C105" s="3"/>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C106" s="4"/>
+      <c r="C106" s="3"/>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C107" s="4"/>
+      <c r="C107" s="3"/>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C108" s="4"/>
+      <c r="C108" s="3"/>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C109" s="4"/>
+      <c r="C109" s="3"/>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C110" s="4"/>
+      <c r="C110" s="3"/>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C111" s="4"/>
+      <c r="C111" s="3"/>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C112" s="4"/>
+      <c r="C112" s="3"/>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C113" s="4"/>
+      <c r="C113" s="3"/>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C114" s="4"/>
+      <c r="C114" s="3"/>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C115" s="4"/>
+      <c r="C115" s="3"/>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C116" s="4"/>
+      <c r="C116" s="3"/>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C117" s="4"/>
+      <c r="C117" s="3"/>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C118" s="4"/>
+      <c r="C118" s="3"/>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C119" s="4"/>
+      <c r="C119" s="3"/>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C120" s="4"/>
+      <c r="C120" s="3"/>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C121" s="4"/>
+      <c r="C121" s="3"/>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C122" s="4"/>
+      <c r="C122" s="3"/>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C123" s="4"/>
+      <c r="C123" s="3"/>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C124" s="4"/>
+      <c r="C124" s="3"/>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C125" s="4"/>
+      <c r="C125" s="3"/>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C126" s="4"/>
+      <c r="C126" s="3"/>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C127" s="4"/>
+      <c r="C127" s="3"/>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C128" s="4"/>
+      <c r="C128" s="3"/>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="4"/>
+      <c r="C129" s="3"/>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="4"/>
+      <c r="C130" s="3"/>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="4"/>
+      <c r="C131" s="3"/>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="4"/>
+      <c r="C132" s="3"/>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="4"/>
+      <c r="C133" s="3"/>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="4"/>
+      <c r="C134" s="3"/>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="4"/>
+      <c r="C135" s="3"/>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="4"/>
+      <c r="C136" s="3"/>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="4"/>
+      <c r="C137" s="3"/>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="4"/>
+      <c r="C138" s="3"/>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="4"/>
+      <c r="C139" s="3"/>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="4"/>
+      <c r="C140" s="3"/>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="4"/>
+      <c r="C141" s="3"/>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="4"/>
+      <c r="C142" s="3"/>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="4"/>
+      <c r="C143" s="3"/>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="4"/>
+      <c r="C144" s="3"/>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="4"/>
+      <c r="C145" s="3"/>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="4"/>
+      <c r="C146" s="3"/>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="4"/>
+      <c r="C147" s="3"/>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="4"/>
+      <c r="C148" s="3"/>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="4"/>
+      <c r="C149" s="3"/>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="4"/>
+      <c r="C150" s="3"/>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="4"/>
+      <c r="C151" s="3"/>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="4"/>
+      <c r="C152" s="3"/>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="4"/>
+      <c r="C153" s="3"/>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="4"/>
+      <c r="C154" s="3"/>
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="4"/>
+      <c r="C155" s="3"/>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="4"/>
+      <c r="C156" s="3"/>
     </row>
     <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="4"/>
+      <c r="C157" s="3"/>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="4"/>
+      <c r="C158" s="3"/>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="4"/>
+      <c r="C159" s="3"/>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="4"/>
+      <c r="C160" s="3"/>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="4"/>
+      <c r="C161" s="3"/>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="4"/>
+      <c r="C162" s="3"/>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="4"/>
+      <c r="C163" s="3"/>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="4"/>
+      <c r="C164" s="3"/>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="4"/>
+      <c r="C165" s="3"/>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="4"/>
+      <c r="C166" s="3"/>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="4"/>
+      <c r="C167" s="3"/>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="4"/>
+      <c r="C168" s="3"/>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="4"/>
+      <c r="C169" s="3"/>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="4"/>
+      <c r="C170" s="3"/>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="4"/>
+      <c r="C171" s="3"/>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="4"/>
+      <c r="C172" s="3"/>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="4"/>
+      <c r="C173" s="3"/>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="4"/>
+      <c r="C174" s="3"/>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="4"/>
+      <c r="C175" s="3"/>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="4"/>
+      <c r="C176" s="3"/>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="4"/>
+      <c r="C177" s="3"/>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="4"/>
+      <c r="C178" s="3"/>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="4"/>
+      <c r="C179" s="3"/>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="4"/>
+      <c r="C180" s="3"/>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="4"/>
+      <c r="C181" s="3"/>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="4"/>
+      <c r="C182" s="3"/>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="4"/>
+      <c r="C183" s="3"/>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="4"/>
+      <c r="C184" s="3"/>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="4"/>
+      <c r="C185" s="3"/>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="4"/>
+      <c r="C186" s="3"/>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="4"/>
+      <c r="C187" s="3"/>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="4"/>
+      <c r="C188" s="3"/>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="4"/>
+      <c r="C189" s="3"/>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="4"/>
+      <c r="C190" s="3"/>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="4"/>
+      <c r="C191" s="3"/>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="4"/>
+      <c r="C192" s="3"/>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="4"/>
+      <c r="C193" s="3"/>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C194" s="4"/>
+      <c r="C194" s="3"/>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C195" s="4"/>
+      <c r="C195" s="3"/>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C196" s="4"/>
+      <c r="C196" s="3"/>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C197" s="4"/>
+      <c r="C197" s="3"/>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C198" s="4"/>
+      <c r="C198" s="3"/>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C199" s="4"/>
+      <c r="C199" s="3"/>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C200" s="4"/>
+      <c r="C200" s="3"/>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C201" s="4"/>
+      <c r="C201" s="3"/>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C202" s="4"/>
+      <c r="C202" s="3"/>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C203" s="4"/>
+      <c r="C203" s="3"/>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C204" s="4"/>
+      <c r="C204" s="3"/>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C205" s="4"/>
+      <c r="C205" s="3"/>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C206" s="4"/>
+      <c r="C206" s="3"/>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C207" s="4"/>
+      <c r="C207" s="3"/>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C208" s="4"/>
+      <c r="C208" s="3"/>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C209" s="4"/>
+      <c r="C209" s="3"/>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C210" s="4"/>
+      <c r="C210" s="3"/>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C211" s="4"/>
+      <c r="C211" s="3"/>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C212" s="4"/>
+      <c r="C212" s="3"/>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C213" s="4"/>
+      <c r="C213" s="3"/>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C214" s="4"/>
+      <c r="C214" s="3"/>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C215" s="4"/>
+      <c r="C215" s="3"/>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C216" s="4"/>
+      <c r="C216" s="3"/>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C217" s="4"/>
+      <c r="C217" s="3"/>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C218" s="4"/>
+      <c r="C218" s="3"/>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C219" s="4"/>
+      <c r="C219" s="3"/>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C220" s="4"/>
+      <c r="C220" s="3"/>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C221" s="4"/>
+      <c r="C221" s="3"/>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C222" s="4"/>
+      <c r="C222" s="3"/>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C223" s="4"/>
+      <c r="C223" s="3"/>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C224" s="4"/>
+      <c r="C224" s="3"/>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C225" s="4"/>
+      <c r="C225" s="3"/>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C226" s="4"/>
+      <c r="C226" s="3"/>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C227" s="4"/>
+      <c r="C227" s="3"/>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C228" s="4"/>
+      <c r="C228" s="3"/>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C229" s="4"/>
+      <c r="C229" s="3"/>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C230" s="4"/>
+      <c r="C230" s="3"/>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C231" s="4"/>
+      <c r="C231" s="3"/>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C232" s="4"/>
+      <c r="C232" s="3"/>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C233" s="4"/>
+      <c r="C233" s="3"/>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C234" s="4"/>
+      <c r="C234" s="3"/>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C235" s="4"/>
+      <c r="C235" s="3"/>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C236" s="4"/>
+      <c r="C236" s="3"/>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C237" s="4"/>
+      <c r="C237" s="3"/>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C238" s="4"/>
+      <c r="C238" s="3"/>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C239" s="4"/>
+      <c r="C239" s="3"/>
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C240" s="4"/>
+      <c r="C240" s="3"/>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C241" s="4"/>
+      <c r="C241" s="3"/>
     </row>
     <row r="242" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C242" s="4"/>
+      <c r="C242" s="3"/>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C243" s="4"/>
+      <c r="C243" s="3"/>
     </row>
     <row r="244" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C244" s="4"/>
+      <c r="C244" s="3"/>
     </row>
     <row r="245" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C245" s="4"/>
+      <c r="C245" s="3"/>
     </row>
     <row r="246" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C246" s="4"/>
+      <c r="C246" s="3"/>
     </row>
     <row r="247" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C247" s="4"/>
+      <c r="C247" s="3"/>
     </row>
     <row r="248" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C248" s="4"/>
+      <c r="C248" s="3"/>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C249" s="4"/>
+      <c r="C249" s="3"/>
     </row>
     <row r="250" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C250" s="4"/>
+      <c r="C250" s="3"/>
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C251" s="4"/>
+      <c r="C251" s="3"/>
     </row>
     <row r="252" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C252" s="4"/>
+      <c r="C252" s="3"/>
     </row>
     <row r="253" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C253" s="4"/>
+      <c r="C253" s="3"/>
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C254" s="4"/>
+      <c r="C254" s="3"/>
     </row>
     <row r="255" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C255" s="4"/>
+      <c r="C255" s="3"/>
     </row>
     <row r="256" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C256" s="4"/>
+      <c r="C256" s="3"/>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C257" s="4"/>
+      <c r="C257" s="3"/>
     </row>
     <row r="258" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C258" s="4"/>
+      <c r="C258" s="3"/>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C259" s="4"/>
+      <c r="C259" s="3"/>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C260" s="4"/>
+      <c r="C260" s="3"/>
     </row>
     <row r="261" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C261" s="4"/>
+      <c r="C261" s="3"/>
     </row>
     <row r="262" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C262" s="4"/>
+      <c r="C262" s="3"/>
     </row>
     <row r="263" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C263" s="4"/>
+      <c r="C263" s="3"/>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C264" s="4"/>
+      <c r="C264" s="3"/>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C265" s="4"/>
+      <c r="C265" s="3"/>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C266" s="4"/>
+      <c r="C266" s="3"/>
     </row>
     <row r="267" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C267" s="4"/>
+      <c r="C267" s="3"/>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C268" s="4"/>
+      <c r="C268" s="3"/>
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C269" s="4"/>
+      <c r="C269" s="3"/>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C270" s="4"/>
+      <c r="C270" s="3"/>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C271" s="4"/>
+      <c r="C271" s="3"/>
     </row>
     <row r="272" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C272" s="4"/>
+      <c r="C272" s="3"/>
     </row>
     <row r="273" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C273" s="4"/>
+      <c r="C273" s="3"/>
     </row>
     <row r="274" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C274" s="4"/>
+      <c r="C274" s="3"/>
     </row>
     <row r="275" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C275" s="4"/>
+      <c r="C275" s="3"/>
     </row>
     <row r="276" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C276" s="4"/>
+      <c r="C276" s="3"/>
     </row>
     <row r="277" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C277" s="4"/>
+      <c r="C277" s="3"/>
     </row>
     <row r="278" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C278" s="4"/>
+      <c r="C278" s="3"/>
     </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C279" s="4"/>
+      <c r="C279" s="3"/>
     </row>
     <row r="280" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C280" s="4"/>
+      <c r="C280" s="3"/>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C281" s="4"/>
+      <c r="C281" s="3"/>
     </row>
     <row r="282" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C282" s="4"/>
+      <c r="C282" s="3"/>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C283" s="4"/>
+      <c r="C283" s="3"/>
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C284" s="4"/>
+      <c r="C284" s="3"/>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C285" s="4"/>
+      <c r="C285" s="3"/>
     </row>
     <row r="286" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C286" s="4"/>
+      <c r="C286" s="3"/>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C287" s="4"/>
+      <c r="C287" s="3"/>
     </row>
     <row r="288" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C288" s="4"/>
+      <c r="C288" s="3"/>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C289" s="4"/>
+      <c r="C289" s="3"/>
     </row>
     <row r="290" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C290" s="4"/>
+      <c r="C290" s="3"/>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C291" s="4"/>
+      <c r="C291" s="3"/>
     </row>
     <row r="292" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C292" s="4"/>
+      <c r="C292" s="3"/>
     </row>
     <row r="293" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C293" s="4"/>
+      <c r="C293" s="3"/>
     </row>
     <row r="294" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C294" s="4"/>
+      <c r="C294" s="3"/>
     </row>
     <row r="295" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C295" s="4"/>
+      <c r="C295" s="3"/>
     </row>
     <row r="296" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C296" s="4"/>
+      <c r="C296" s="3"/>
     </row>
     <row r="297" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C297" s="4"/>
+      <c r="C297" s="3"/>
     </row>
     <row r="298" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C298" s="4"/>
+      <c r="C298" s="3"/>
     </row>
     <row r="299" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C299" s="4"/>
+      <c r="C299" s="3"/>
     </row>
     <row r="300" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C300" s="4"/>
+      <c r="C300" s="3"/>
     </row>
     <row r="301" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C301" s="4"/>
+      <c r="C301" s="3"/>
     </row>
     <row r="302" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C302" s="4"/>
+      <c r="C302" s="3"/>
     </row>
     <row r="303" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C303" s="4"/>
+      <c r="C303" s="3"/>
     </row>
     <row r="304" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C304" s="4"/>
+      <c r="C304" s="3"/>
     </row>
     <row r="305" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C305" s="4"/>
+      <c r="C305" s="3"/>
     </row>
     <row r="306" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C306" s="4"/>
+      <c r="C306" s="3"/>
     </row>
     <row r="307" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C307" s="4"/>
+      <c r="C307" s="3"/>
     </row>
     <row r="308" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C308" s="4"/>
+      <c r="C308" s="3"/>
     </row>
     <row r="309" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C309" s="4"/>
+      <c r="C309" s="3"/>
     </row>
     <row r="310" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C310" s="4"/>
+      <c r="C310" s="3"/>
     </row>
     <row r="311" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C311" s="4"/>
+      <c r="C311" s="3"/>
     </row>
     <row r="312" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C312" s="4"/>
+      <c r="C312" s="3"/>
     </row>
     <row r="313" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C313" s="4"/>
+      <c r="C313" s="3"/>
     </row>
     <row r="314" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C314" s="4"/>
+      <c r="C314" s="3"/>
     </row>
     <row r="315" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C315" s="4"/>
+      <c r="C315" s="3"/>
     </row>
     <row r="316" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C316" s="4"/>
+      <c r="C316" s="3"/>
     </row>
     <row r="317" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C317" s="4"/>
+      <c r="C317" s="3"/>
     </row>
     <row r="318" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C318" s="4"/>
+      <c r="C318" s="3"/>
     </row>
     <row r="319" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C319" s="4"/>
+      <c r="C319" s="3"/>
     </row>
     <row r="320" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C320" s="4"/>
+      <c r="C320" s="3"/>
     </row>
     <row r="321" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C321" s="4"/>
+      <c r="C321" s="3"/>
     </row>
     <row r="322" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C322" s="4"/>
+      <c r="C322" s="3"/>
     </row>
     <row r="323" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C323" s="4"/>
+      <c r="C323" s="3"/>
     </row>
     <row r="324" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C324" s="4"/>
+      <c r="C324" s="3"/>
     </row>
     <row r="325" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C325" s="4"/>
+      <c r="C325" s="3"/>
     </row>
     <row r="326" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C326" s="4"/>
+      <c r="C326" s="3"/>
     </row>
     <row r="327" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C327" s="4"/>
+      <c r="C327" s="3"/>
     </row>
     <row r="328" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C328" s="4"/>
+      <c r="C328" s="3"/>
     </row>
     <row r="329" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C329" s="4"/>
+      <c r="C329" s="3"/>
     </row>
     <row r="330" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C330" s="4"/>
+      <c r="C330" s="3"/>
     </row>
     <row r="331" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C331" s="4"/>
+      <c r="C331" s="3"/>
     </row>
     <row r="332" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C332" s="4"/>
+      <c r="C332" s="3"/>
     </row>
     <row r="333" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C333" s="4"/>
+      <c r="C333" s="3"/>
     </row>
     <row r="334" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C334" s="4"/>
+      <c r="C334" s="3"/>
     </row>
     <row r="335" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C335" s="4"/>
+      <c r="C335" s="3"/>
     </row>
     <row r="336" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C336" s="4"/>
+      <c r="C336" s="3"/>
     </row>
     <row r="337" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C337" s="4"/>
+      <c r="C337" s="3"/>
     </row>
     <row r="338" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C338" s="4"/>
+      <c r="C338" s="3"/>
     </row>
     <row r="339" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C339" s="4"/>
+      <c r="C339" s="3"/>
     </row>
     <row r="340" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C340" s="4"/>
+      <c r="C340" s="3"/>
     </row>
     <row r="341" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C341" s="4"/>
+      <c r="C341" s="3"/>
     </row>
     <row r="342" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C342" s="4"/>
+      <c r="C342" s="3"/>
     </row>
     <row r="343" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C343" s="4"/>
+      <c r="C343" s="3"/>
     </row>
     <row r="344" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C344" s="4"/>
+      <c r="C344" s="3"/>
     </row>
     <row r="345" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C345" s="4"/>
+      <c r="C345" s="3"/>
     </row>
     <row r="346" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C346" s="4"/>
+      <c r="C346" s="3"/>
     </row>
     <row r="347" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C347" s="4"/>
+      <c r="C347" s="3"/>
     </row>
     <row r="348" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C348" s="4"/>
+      <c r="C348" s="3"/>
     </row>
     <row r="349" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C349" s="4"/>
+      <c r="C349" s="3"/>
     </row>
     <row r="350" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C350" s="4"/>
+      <c r="C350" s="3"/>
     </row>
     <row r="351" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C351" s="4"/>
+      <c r="C351" s="3"/>
     </row>
     <row r="352" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C352" s="4"/>
+      <c r="C352" s="3"/>
     </row>
     <row r="353" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C353" s="4"/>
+      <c r="C353" s="3"/>
     </row>
     <row r="354" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C354" s="4"/>
+      <c r="C354" s="3"/>
     </row>
     <row r="355" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C355" s="4"/>
+      <c r="C355" s="3"/>
     </row>
     <row r="356" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C356" s="4"/>
+      <c r="C356" s="3"/>
     </row>
     <row r="357" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C357" s="4"/>
+      <c r="C357" s="3"/>
     </row>
     <row r="358" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C358" s="4"/>
+      <c r="C358" s="3"/>
     </row>
     <row r="359" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C359" s="4"/>
+      <c r="C359" s="3"/>
     </row>
     <row r="360" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C360" s="4"/>
+      <c r="C360" s="3"/>
     </row>
     <row r="361" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C361" s="4"/>
+      <c r="C361" s="3"/>
     </row>
     <row r="362" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C362" s="4"/>
+      <c r="C362" s="3"/>
     </row>
     <row r="363" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C363" s="4"/>
+      <c r="C363" s="3"/>
     </row>
     <row r="364" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C364" s="4"/>
+      <c r="C364" s="3"/>
     </row>
     <row r="365" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C365" s="4"/>
+      <c r="C365" s="3"/>
     </row>
     <row r="366" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C366" s="4"/>
+      <c r="C366" s="3"/>
     </row>
     <row r="367" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C367" s="4"/>
+      <c r="C367" s="3"/>
     </row>
     <row r="368" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C368" s="4"/>
+      <c r="C368" s="3"/>
     </row>
     <row r="369" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C369" s="4"/>
+      <c r="C369" s="3"/>
     </row>
     <row r="370" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C370" s="4"/>
+      <c r="C370" s="3"/>
     </row>
     <row r="371" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C371" s="4"/>
+      <c r="C371" s="3"/>
     </row>
     <row r="372" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C372" s="4"/>
+      <c r="C372" s="3"/>
     </row>
     <row r="373" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C373" s="4"/>
+      <c r="C373" s="3"/>
     </row>
     <row r="374" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C374" s="4"/>
+      <c r="C374" s="3"/>
     </row>
     <row r="375" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C375" s="4"/>
+      <c r="C375" s="3"/>
     </row>
     <row r="376" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C376" s="4"/>
+      <c r="C376" s="3"/>
     </row>
     <row r="377" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C377" s="4"/>
+      <c r="C377" s="3"/>
     </row>
     <row r="378" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C378" s="4"/>
+      <c r="C378" s="3"/>
     </row>
     <row r="379" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C379" s="4"/>
+      <c r="C379" s="3"/>
     </row>
     <row r="380" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C380" s="4"/>
+      <c r="C380" s="3"/>
     </row>
     <row r="381" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C381" s="4"/>
+      <c r="C381" s="3"/>
     </row>
     <row r="382" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C382" s="4"/>
+      <c r="C382" s="3"/>
     </row>
     <row r="383" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C383" s="4"/>
+      <c r="C383" s="3"/>
     </row>
     <row r="384" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C384" s="4"/>
+      <c r="C384" s="3"/>
     </row>
     <row r="385" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C385" s="4"/>
+      <c r="C385" s="3"/>
     </row>
     <row r="386" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C386" s="4"/>
+      <c r="C386" s="3"/>
     </row>
     <row r="387" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C387" s="4"/>
+      <c r="C387" s="3"/>
     </row>
     <row r="388" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C388" s="4"/>
+      <c r="C388" s="3"/>
     </row>
     <row r="389" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C389" s="4"/>
+      <c r="C389" s="3"/>
     </row>
     <row r="390" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C390" s="4"/>
+      <c r="C390" s="3"/>
     </row>
     <row r="391" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C391" s="4"/>
+      <c r="C391" s="3"/>
     </row>
     <row r="392" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C392" s="4"/>
+      <c r="C392" s="3"/>
     </row>
     <row r="393" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C393" s="4"/>
+      <c r="C393" s="3"/>
     </row>
     <row r="394" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C394" s="4"/>
+      <c r="C394" s="3"/>
     </row>
     <row r="395" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C395" s="4"/>
+      <c r="C395" s="3"/>
     </row>
     <row r="396" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C396" s="4"/>
+      <c r="C396" s="3"/>
     </row>
     <row r="397" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C397" s="4"/>
+      <c r="C397" s="3"/>
     </row>
     <row r="398" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C398" s="4"/>
+      <c r="C398" s="3"/>
     </row>
     <row r="399" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C399" s="4"/>
+      <c r="C399" s="3"/>
     </row>
     <row r="400" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C400" s="4"/>
+      <c r="C400" s="3"/>
     </row>
     <row r="401" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C401" s="4"/>
+      <c r="C401" s="3"/>
     </row>
     <row r="402" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C402" s="4"/>
+      <c r="C402" s="3"/>
     </row>
     <row r="403" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C403" s="4"/>
+      <c r="C403" s="3"/>
     </row>
     <row r="404" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C404" s="4"/>
+      <c r="C404" s="3"/>
     </row>
     <row r="405" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C405" s="4"/>
+      <c r="C405" s="3"/>
     </row>
     <row r="406" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C406" s="4"/>
+      <c r="C406" s="3"/>
     </row>
     <row r="407" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C407" s="4"/>
+      <c r="C407" s="3"/>
     </row>
     <row r="408" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C408" s="4"/>
+      <c r="C408" s="3"/>
     </row>
     <row r="409" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C409" s="4"/>
+      <c r="C409" s="3"/>
     </row>
     <row r="410" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C410" s="4"/>
+      <c r="C410" s="3"/>
     </row>
     <row r="411" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C411" s="4"/>
+      <c r="C411" s="3"/>
     </row>
     <row r="412" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C412" s="4"/>
+      <c r="C412" s="3"/>
     </row>
     <row r="413" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C413" s="4"/>
+      <c r="C413" s="3"/>
     </row>
     <row r="414" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C414" s="4"/>
+      <c r="C414" s="3"/>
     </row>
     <row r="415" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C415" s="4"/>
+      <c r="C415" s="3"/>
     </row>
     <row r="416" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C416" s="4"/>
+      <c r="C416" s="3"/>
     </row>
     <row r="417" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C417" s="4"/>
+      <c r="C417" s="3"/>
     </row>
     <row r="418" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C418" s="4"/>
+      <c r="C418" s="3"/>
     </row>
     <row r="419" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C419" s="4"/>
+      <c r="C419" s="3"/>
     </row>
     <row r="420" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C420" s="4"/>
+      <c r="C420" s="3"/>
     </row>
     <row r="421" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C421" s="4"/>
+      <c r="C421" s="3"/>
     </row>
     <row r="422" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C422" s="4"/>
+      <c r="C422" s="3"/>
     </row>
     <row r="423" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C423" s="4"/>
+      <c r="C423" s="3"/>
     </row>
     <row r="424" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C424" s="4"/>
+      <c r="C424" s="3"/>
     </row>
     <row r="425" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C425" s="4"/>
+      <c r="C425" s="3"/>
     </row>
     <row r="426" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C426" s="4"/>
+      <c r="C426" s="3"/>
     </row>
     <row r="427" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C427" s="4"/>
+      <c r="C427" s="3"/>
     </row>
     <row r="428" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C428" s="4"/>
+      <c r="C428" s="3"/>
     </row>
     <row r="429" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C429" s="4"/>
+      <c r="C429" s="3"/>
     </row>
     <row r="430" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C430" s="4"/>
+      <c r="C430" s="3"/>
     </row>
     <row r="431" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C431" s="4"/>
+      <c r="C431" s="3"/>
     </row>
     <row r="432" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C432" s="4"/>
+      <c r="C432" s="3"/>
     </row>
     <row r="433" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C433" s="4"/>
+      <c r="C433" s="3"/>
     </row>
     <row r="434" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C434" s="4"/>
+      <c r="C434" s="3"/>
     </row>
     <row r="435" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C435" s="4"/>
+      <c r="C435" s="3"/>
     </row>
     <row r="436" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C436" s="4"/>
+      <c r="C436" s="3"/>
     </row>
     <row r="437" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C437" s="4"/>
+      <c r="C437" s="3"/>
     </row>
     <row r="438" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C438" s="4"/>
+      <c r="C438" s="3"/>
     </row>
     <row r="439" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C439" s="4"/>
+      <c r="C439" s="3"/>
     </row>
     <row r="440" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C440" s="4"/>
+      <c r="C440" s="3"/>
     </row>
     <row r="441" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C441" s="4"/>
+      <c r="C441" s="3"/>
     </row>
     <row r="442" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C442" s="4"/>
+      <c r="C442" s="3"/>
     </row>
     <row r="443" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C443" s="4"/>
+      <c r="C443" s="3"/>
     </row>
     <row r="444" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C444" s="4"/>
+      <c r="C444" s="3"/>
     </row>
     <row r="445" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C445" s="4"/>
+      <c r="C445" s="3"/>
     </row>
     <row r="446" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C446" s="4"/>
+      <c r="C446" s="3"/>
     </row>
     <row r="447" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C447" s="4"/>
+      <c r="C447" s="3"/>
     </row>
     <row r="448" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C448" s="4"/>
+      <c r="C448" s="3"/>
     </row>
     <row r="449" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C449" s="4"/>
+      <c r="C449" s="3"/>
     </row>
     <row r="450" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C450" s="4"/>
+      <c r="C450" s="3"/>
     </row>
     <row r="451" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C451" s="4"/>
+      <c r="C451" s="3"/>
     </row>
     <row r="452" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C452" s="4"/>
+      <c r="C452" s="3"/>
     </row>
     <row r="453" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C453" s="4"/>
+      <c r="C453" s="3"/>
     </row>
     <row r="454" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C454" s="4"/>
+      <c r="C454" s="3"/>
     </row>
     <row r="455" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C455" s="4"/>
+      <c r="C455" s="3"/>
     </row>
     <row r="456" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C456" s="4"/>
+      <c r="C456" s="3"/>
     </row>
     <row r="457" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C457" s="4"/>
+      <c r="C457" s="3"/>
     </row>
     <row r="458" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C458" s="4"/>
+      <c r="C458" s="3"/>
     </row>
     <row r="459" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C459" s="4"/>
+      <c r="C459" s="3"/>
     </row>
     <row r="460" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C460" s="4"/>
+      <c r="C460" s="3"/>
     </row>
     <row r="461" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C461" s="4"/>
+      <c r="C461" s="3"/>
     </row>
     <row r="462" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C462" s="4"/>
+      <c r="C462" s="3"/>
     </row>
     <row r="463" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C463" s="4"/>
+      <c r="C463" s="3"/>
     </row>
     <row r="464" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C464" s="4"/>
+      <c r="C464" s="3"/>
     </row>
     <row r="465" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C465" s="4"/>
+      <c r="C465" s="3"/>
     </row>
     <row r="466" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C466" s="4"/>
+      <c r="C466" s="3"/>
     </row>
     <row r="467" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C467" s="4"/>
+      <c r="C467" s="3"/>
     </row>
     <row r="468" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C468" s="4"/>
+      <c r="C468" s="3"/>
     </row>
     <row r="469" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C469" s="4"/>
+      <c r="C469" s="3"/>
     </row>
     <row r="470" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C470" s="4"/>
+      <c r="C470" s="3"/>
     </row>
     <row r="471" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C471" s="4"/>
+      <c r="C471" s="3"/>
     </row>
     <row r="472" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C472" s="4"/>
+      <c r="C472" s="3"/>
     </row>
     <row r="473" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C473" s="4"/>
+      <c r="C473" s="3"/>
     </row>
     <row r="474" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C474" s="4"/>
+      <c r="C474" s="3"/>
     </row>
     <row r="475" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C475" s="4"/>
+      <c r="C475" s="3"/>
     </row>
     <row r="476" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C476" s="4"/>
+      <c r="C476" s="3"/>
     </row>
     <row r="477" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C477" s="4"/>
+      <c r="C477" s="3"/>
     </row>
     <row r="478" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C478" s="4"/>
+      <c r="C478" s="3"/>
     </row>
     <row r="479" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C479" s="4"/>
+      <c r="C479" s="3"/>
     </row>
     <row r="480" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C480" s="4"/>
+      <c r="C480" s="3"/>
     </row>
     <row r="481" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C481" s="4"/>
+      <c r="C481" s="3"/>
     </row>
     <row r="482" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C482" s="4"/>
+      <c r="C482" s="3"/>
     </row>
     <row r="483" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C483" s="4"/>
+      <c r="C483" s="3"/>
     </row>
     <row r="484" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C484" s="4"/>
+      <c r="C484" s="3"/>
     </row>
     <row r="485" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C485" s="4"/>
+      <c r="C485" s="3"/>
     </row>
     <row r="486" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C486" s="4"/>
+      <c r="C486" s="3"/>
     </row>
     <row r="487" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C487" s="4"/>
+      <c r="C487" s="3"/>
     </row>
     <row r="488" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C488" s="4"/>
+      <c r="C488" s="3"/>
     </row>
     <row r="489" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C489" s="4"/>
+      <c r="C489" s="3"/>
     </row>
     <row r="490" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C490" s="4"/>
+      <c r="C490" s="3"/>
     </row>
     <row r="491" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C491" s="4"/>
+      <c r="C491" s="3"/>
     </row>
     <row r="492" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C492" s="4"/>
+      <c r="C492" s="3"/>
     </row>
     <row r="493" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C493" s="4"/>
+      <c r="C493" s="3"/>
     </row>
     <row r="494" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C494" s="4"/>
+      <c r="C494" s="3"/>
     </row>
     <row r="495" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C495" s="4"/>
+      <c r="C495" s="3"/>
     </row>
     <row r="496" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C496" s="4"/>
+      <c r="C496" s="3"/>
     </row>
     <row r="497" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C497" s="4"/>
+      <c r="C497" s="3"/>
     </row>
     <row r="498" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C498" s="4"/>
+      <c r="C498" s="3"/>
     </row>
     <row r="499" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C499" s="4"/>
+      <c r="C499" s="3"/>
     </row>
     <row r="500" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C500" s="4"/>
+      <c r="C500" s="3"/>
     </row>
     <row r="501" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C501" s="4"/>
+      <c r="C501" s="3"/>
     </row>
     <row r="502" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C502" s="4"/>
+      <c r="C502" s="3"/>
     </row>
     <row r="503" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C503" s="4"/>
+      <c r="C503" s="3"/>
     </row>
     <row r="504" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C504" s="4"/>
+      <c r="C504" s="3"/>
     </row>
     <row r="505" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C505" s="4"/>
+      <c r="C505" s="3"/>
     </row>
     <row r="506" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C506" s="4"/>
+      <c r="C506" s="3"/>
     </row>
     <row r="507" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C507" s="4"/>
+      <c r="C507" s="3"/>
     </row>
     <row r="508" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C508" s="4"/>
+      <c r="C508" s="3"/>
     </row>
     <row r="509" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C509" s="4"/>
+      <c r="C509" s="3"/>
     </row>
     <row r="510" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C510" s="4"/>
+      <c r="C510" s="3"/>
     </row>
     <row r="511" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C511" s="4"/>
+      <c r="C511" s="3"/>
     </row>
     <row r="512" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C512" s="4"/>
+      <c r="C512" s="3"/>
     </row>
     <row r="513" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C513" s="4"/>
+      <c r="C513" s="3"/>
     </row>
     <row r="514" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C514" s="4"/>
+      <c r="C514" s="3"/>
     </row>
     <row r="515" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C515" s="4"/>
+      <c r="C515" s="3"/>
     </row>
     <row r="516" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C516" s="4"/>
+      <c r="C516" s="3"/>
     </row>
     <row r="517" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C517" s="4"/>
+      <c r="C517" s="3"/>
     </row>
     <row r="518" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C518" s="4"/>
+      <c r="C518" s="3"/>
     </row>
     <row r="519" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C519" s="4"/>
+      <c r="C519" s="3"/>
     </row>
     <row r="520" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C520" s="4"/>
+      <c r="C520" s="3"/>
     </row>
     <row r="521" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C521" s="4"/>
+      <c r="C521" s="3"/>
     </row>
     <row r="522" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C522" s="4"/>
+      <c r="C522" s="3"/>
     </row>
     <row r="523" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C523" s="4"/>
+      <c r="C523" s="3"/>
     </row>
     <row r="524" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C524" s="4"/>
+      <c r="C524" s="3"/>
     </row>
     <row r="525" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C525" s="4"/>
+      <c r="C525" s="3"/>
     </row>
     <row r="526" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C526" s="4"/>
+      <c r="C526" s="3"/>
     </row>
     <row r="527" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C527" s="4"/>
+      <c r="C527" s="3"/>
     </row>
     <row r="528" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C528" s="4"/>
+      <c r="C528" s="3"/>
     </row>
     <row r="529" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C529" s="4"/>
+      <c r="C529" s="3"/>
     </row>
     <row r="530" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C530" s="4"/>
+      <c r="C530" s="3"/>
     </row>
     <row r="531" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C531" s="4"/>
+      <c r="C531" s="3"/>
     </row>
     <row r="532" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C532" s="4"/>
+      <c r="C532" s="3"/>
     </row>
     <row r="533" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C533" s="4"/>
+      <c r="C533" s="3"/>
     </row>
     <row r="534" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C534" s="4"/>
+      <c r="C534" s="3"/>
     </row>
     <row r="535" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C535" s="4"/>
+      <c r="C535" s="3"/>
     </row>
     <row r="536" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C536" s="4"/>
+      <c r="C536" s="3"/>
     </row>
     <row r="537" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C537" s="4"/>
+      <c r="C537" s="3"/>
     </row>
     <row r="538" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C538" s="4"/>
+      <c r="C538" s="3"/>
     </row>
     <row r="539" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C539" s="4"/>
+      <c r="C539" s="3"/>
     </row>
     <row r="540" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C540" s="4"/>
+      <c r="C540" s="3"/>
     </row>
     <row r="541" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C541" s="4"/>
+      <c r="C541" s="3"/>
     </row>
     <row r="542" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C542" s="4"/>
+      <c r="C542" s="3"/>
     </row>
     <row r="543" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C543" s="4"/>
+      <c r="C543" s="3"/>
     </row>
     <row r="544" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C544" s="4"/>
+      <c r="C544" s="3"/>
     </row>
     <row r="545" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C545" s="4"/>
+      <c r="C545" s="3"/>
     </row>
     <row r="546" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C546" s="4"/>
+      <c r="C546" s="3"/>
     </row>
     <row r="547" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C547" s="4"/>
+      <c r="C547" s="3"/>
     </row>
     <row r="548" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C548" s="4"/>
+      <c r="C548" s="3"/>
     </row>
     <row r="549" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C549" s="4"/>
+      <c r="C549" s="3"/>
     </row>
     <row r="550" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C550" s="4"/>
+      <c r="C550" s="3"/>
     </row>
     <row r="551" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C551" s="4"/>
+      <c r="C551" s="3"/>
     </row>
     <row r="552" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C552" s="4"/>
+      <c r="C552" s="3"/>
     </row>
     <row r="553" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C553" s="4"/>
+      <c r="C553" s="3"/>
     </row>
     <row r="554" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C554" s="4"/>
+      <c r="C554" s="3"/>
     </row>
     <row r="555" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C555" s="4"/>
+      <c r="C555" s="3"/>
     </row>
     <row r="556" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C556" s="4"/>
+      <c r="C556" s="3"/>
     </row>
     <row r="557" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C557" s="4"/>
+      <c r="C557" s="3"/>
     </row>
     <row r="558" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C558" s="4"/>
+      <c r="C558" s="3"/>
     </row>
     <row r="559" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C559" s="4"/>
+      <c r="C559" s="3"/>
     </row>
     <row r="560" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C560" s="4"/>
+      <c r="C560" s="3"/>
     </row>
     <row r="561" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C561" s="4"/>
+      <c r="C561" s="3"/>
     </row>
     <row r="562" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C562" s="4"/>
+      <c r="C562" s="3"/>
     </row>
     <row r="563" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C563" s="4"/>
+      <c r="C563" s="3"/>
     </row>
     <row r="564" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C564" s="4"/>
+      <c r="C564" s="3"/>
     </row>
     <row r="565" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C565" s="4"/>
+      <c r="C565" s="3"/>
     </row>
     <row r="566" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C566" s="4"/>
+      <c r="C566" s="3"/>
     </row>
     <row r="567" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C567" s="4"/>
+      <c r="C567" s="3"/>
     </row>
     <row r="568" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C568" s="4"/>
+      <c r="C568" s="3"/>
     </row>
     <row r="569" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C569" s="4"/>
+      <c r="C569" s="3"/>
     </row>
     <row r="570" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C570" s="4"/>
+      <c r="C570" s="3"/>
     </row>
     <row r="571" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C571" s="4"/>
+      <c r="C571" s="3"/>
     </row>
     <row r="572" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C572" s="4"/>
+      <c r="C572" s="3"/>
     </row>
     <row r="573" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C573" s="4"/>
+      <c r="C573" s="3"/>
     </row>
     <row r="574" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C574" s="4"/>
+      <c r="C574" s="3"/>
     </row>
     <row r="575" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C575" s="4"/>
+      <c r="C575" s="3"/>
     </row>
     <row r="576" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C576" s="4"/>
+      <c r="C576" s="3"/>
     </row>
     <row r="577" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C577" s="4"/>
+      <c r="C577" s="3"/>
     </row>
     <row r="578" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C578" s="4"/>
+      <c r="C578" s="3"/>
     </row>
     <row r="579" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C579" s="4"/>
+      <c r="C579" s="3"/>
     </row>
     <row r="580" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C580" s="4"/>
+      <c r="C580" s="3"/>
     </row>
     <row r="581" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C581" s="4"/>
+      <c r="C581" s="3"/>
     </row>
     <row r="582" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C582" s="4"/>
+      <c r="C582" s="3"/>
     </row>
     <row r="583" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C583" s="4"/>
+      <c r="C583" s="3"/>
     </row>
     <row r="584" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C584" s="4"/>
+      <c r="C584" s="3"/>
     </row>
     <row r="585" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C585" s="4"/>
+      <c r="C585" s="3"/>
     </row>
     <row r="586" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C586" s="4"/>
+      <c r="C586" s="3"/>
     </row>
     <row r="587" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C587" s="4"/>
+      <c r="C587" s="3"/>
     </row>
     <row r="588" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C588" s="4"/>
+      <c r="C588" s="3"/>
     </row>
     <row r="589" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C589" s="4"/>
+      <c r="C589" s="3"/>
     </row>
     <row r="590" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C590" s="4"/>
+      <c r="C590" s="3"/>
     </row>
     <row r="591" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C591" s="4"/>
+      <c r="C591" s="3"/>
     </row>
     <row r="592" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C592" s="4"/>
+      <c r="C592" s="3"/>
     </row>
     <row r="593" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C593" s="4"/>
+      <c r="C593" s="3"/>
     </row>
     <row r="594" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C594" s="4"/>
+      <c r="C594" s="3"/>
     </row>
     <row r="595" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C595" s="4"/>
+      <c r="C595" s="3"/>
     </row>
     <row r="596" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C596" s="4"/>
+      <c r="C596" s="3"/>
     </row>
     <row r="597" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C597" s="4"/>
+      <c r="C597" s="3"/>
     </row>
     <row r="598" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C598" s="4"/>
+      <c r="C598" s="3"/>
     </row>
     <row r="599" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C599" s="4"/>
+      <c r="C599" s="3"/>
     </row>
     <row r="600" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C600" s="4"/>
+      <c r="C600" s="3"/>
     </row>
     <row r="601" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C601" s="4"/>
+      <c r="C601" s="3"/>
     </row>
     <row r="602" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C602" s="4"/>
+      <c r="C602" s="3"/>
     </row>
     <row r="603" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C603" s="4"/>
+      <c r="C603" s="3"/>
     </row>
     <row r="604" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C604" s="4"/>
+      <c r="C604" s="3"/>
     </row>
     <row r="605" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C605" s="4"/>
+      <c r="C605" s="3"/>
     </row>
     <row r="606" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C606" s="4"/>
+      <c r="C606" s="3"/>
     </row>
     <row r="607" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C607" s="4"/>
+      <c r="C607" s="3"/>
     </row>
     <row r="608" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C608" s="4"/>
+      <c r="C608" s="3"/>
     </row>
     <row r="609" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C609" s="4"/>
+      <c r="C609" s="3"/>
     </row>
     <row r="610" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C610" s="4"/>
+      <c r="C610" s="3"/>
     </row>
     <row r="611" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C611" s="4"/>
+      <c r="C611" s="3"/>
     </row>
     <row r="612" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C612" s="4"/>
+      <c r="C612" s="3"/>
     </row>
     <row r="613" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C613" s="4"/>
+      <c r="C613" s="3"/>
     </row>
     <row r="614" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C614" s="4"/>
+      <c r="C614" s="3"/>
     </row>
     <row r="615" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C615" s="4"/>
+      <c r="C615" s="3"/>
     </row>
     <row r="616" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C616" s="4"/>
+      <c r="C616" s="3"/>
     </row>
     <row r="617" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C617" s="4"/>
+      <c r="C617" s="3"/>
     </row>
     <row r="618" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C618" s="4"/>
+      <c r="C618" s="3"/>
     </row>
     <row r="619" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C619" s="4"/>
+      <c r="C619" s="3"/>
     </row>
     <row r="620" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C620" s="4"/>
+      <c r="C620" s="3"/>
     </row>
     <row r="621" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C621" s="4"/>
+      <c r="C621" s="3"/>
     </row>
     <row r="622" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C622" s="4"/>
+      <c r="C622" s="3"/>
     </row>
     <row r="623" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C623" s="4"/>
+      <c r="C623" s="3"/>
     </row>
     <row r="624" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C624" s="4"/>
+      <c r="C624" s="3"/>
     </row>
     <row r="625" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C625" s="4"/>
+      <c r="C625" s="3"/>
     </row>
     <row r="626" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C626" s="4"/>
+      <c r="C626" s="3"/>
     </row>
     <row r="627" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C627" s="4"/>
+      <c r="C627" s="3"/>
     </row>
     <row r="628" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C628" s="4"/>
+      <c r="C628" s="3"/>
     </row>
     <row r="629" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C629" s="4"/>
+      <c r="C629" s="3"/>
     </row>
     <row r="630" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C630" s="4"/>
+      <c r="C630" s="3"/>
     </row>
     <row r="631" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C631" s="4"/>
+      <c r="C631" s="3"/>
     </row>
     <row r="632" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C632" s="4"/>
+      <c r="C632" s="3"/>
     </row>
     <row r="633" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C633" s="4"/>
+      <c r="C633" s="3"/>
     </row>
     <row r="634" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C634" s="4"/>
+      <c r="C634" s="3"/>
     </row>
     <row r="635" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C635" s="4"/>
+      <c r="C635" s="3"/>
     </row>
     <row r="636" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C636" s="4"/>
+      <c r="C636" s="3"/>
     </row>
     <row r="637" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C637" s="4"/>
+      <c r="C637" s="3"/>
     </row>
     <row r="638" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C638" s="4"/>
+      <c r="C638" s="3"/>
     </row>
     <row r="639" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C639" s="4"/>
+      <c r="C639" s="3"/>
     </row>
     <row r="640" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C640" s="4"/>
+      <c r="C640" s="3"/>
     </row>
     <row r="641" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C641" s="4"/>
+      <c r="C641" s="3"/>
     </row>
     <row r="642" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C642" s="4"/>
+      <c r="C642" s="3"/>
     </row>
     <row r="643" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C643" s="4"/>
+      <c r="C643" s="3"/>
     </row>
     <row r="644" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C644" s="4"/>
+      <c r="C644" s="3"/>
     </row>
     <row r="645" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C645" s="4"/>
+      <c r="C645" s="3"/>
     </row>
     <row r="646" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C646" s="4"/>
+      <c r="C646" s="3"/>
     </row>
     <row r="647" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C647" s="4"/>
+      <c r="C647" s="3"/>
     </row>
     <row r="648" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C648" s="4"/>
+      <c r="C648" s="3"/>
     </row>
     <row r="649" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C649" s="4"/>
+      <c r="C649" s="3"/>
     </row>
     <row r="650" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C650" s="4"/>
+      <c r="C650" s="3"/>
     </row>
     <row r="651" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C651" s="4"/>
+      <c r="C651" s="3"/>
     </row>
     <row r="652" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C652" s="4"/>
+      <c r="C652" s="3"/>
     </row>
     <row r="653" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C653" s="4"/>
+      <c r="C653" s="3"/>
     </row>
     <row r="654" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C654" s="4"/>
-    </row>
-    <row r="655" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C655" s="4"/>
-    </row>
-    <row r="656" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C656" s="4"/>
-    </row>
-    <row r="657" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C657" s="4"/>
-    </row>
-    <row r="658" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C658" s="4"/>
-    </row>
-    <row r="659" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C659" s="4"/>
+      <c r="C654" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aplicacao/isencao.xlsx
+++ b/aplicacao/isencao.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>pdv</t>
   </si>
@@ -31,132 +31,6 @@
   </si>
   <si>
     <t>Serial</t>
-  </si>
-  <si>
-    <t>6P151398</t>
-  </si>
-  <si>
-    <t>527-600-569</t>
-  </si>
-  <si>
-    <t>527-624-155</t>
-  </si>
-  <si>
-    <t>541-361-973</t>
-  </si>
-  <si>
-    <t>6P150793</t>
-  </si>
-  <si>
-    <t>527-600-963</t>
-  </si>
-  <si>
-    <t>6P150199</t>
-  </si>
-  <si>
-    <t>527-624-756</t>
-  </si>
-  <si>
-    <t>541-361-842</t>
-  </si>
-  <si>
-    <t>527-624-205</t>
-  </si>
-  <si>
-    <t>541-361-645</t>
-  </si>
-  <si>
-    <t>6P150140</t>
-  </si>
-  <si>
-    <t>6P151035</t>
-  </si>
-  <si>
-    <t>541-361-353</t>
-  </si>
-  <si>
-    <t>6P149234</t>
-  </si>
-  <si>
-    <t>527-270-447</t>
-  </si>
-  <si>
-    <t>541-361-897</t>
-  </si>
-  <si>
-    <t>541-361-331</t>
-  </si>
-  <si>
-    <t>6P150030</t>
-  </si>
-  <si>
-    <t>541-362-190</t>
-  </si>
-  <si>
-    <t>541-361-753</t>
-  </si>
-  <si>
-    <t>541-361-946</t>
-  </si>
-  <si>
-    <t>541-361-415</t>
-  </si>
-  <si>
-    <t>541-361-800</t>
-  </si>
-  <si>
-    <t>541-361-917</t>
-  </si>
-  <si>
-    <t>527-624-730</t>
-  </si>
-  <si>
-    <t>541-361-915</t>
-  </si>
-  <si>
-    <t>541-361-354</t>
-  </si>
-  <si>
-    <t>541-557-404</t>
-  </si>
-  <si>
-    <t>541-557-471</t>
-  </si>
-  <si>
-    <t>6P150003</t>
-  </si>
-  <si>
-    <t>541-361-044</t>
-  </si>
-  <si>
-    <t>6P149342</t>
-  </si>
-  <si>
-    <t>525-891-181</t>
-  </si>
-  <si>
-    <t>6P149201</t>
-  </si>
-  <si>
-    <t>6P150089</t>
-  </si>
-  <si>
-    <t>6P150525</t>
-  </si>
-  <si>
-    <t>527-600-633</t>
-  </si>
-  <si>
-    <t>6P150713</t>
-  </si>
-  <si>
-    <t>526-622-216</t>
-  </si>
-  <si>
-    <t>527-600-601</t>
-  </si>
-  <si>
-    <t>6P150130</t>
   </si>
 </sst>
 </file>
@@ -494,7 +368,7 @@
   <dimension ref="A1:XFA654"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A2" sqref="A2:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,609 +391,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>12924</v>
-      </c>
-      <c r="C2" s="1">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>13413</v>
-      </c>
-      <c r="C3" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>19646</v>
-      </c>
-      <c r="C4" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>25309</v>
-      </c>
-      <c r="C5" s="1">
-        <v>79.900000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>25309</v>
-      </c>
-      <c r="C6" s="1">
-        <v>79.900000000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>28698</v>
-      </c>
-      <c r="C7" s="1">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>28990</v>
-      </c>
-      <c r="C8" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>31570</v>
-      </c>
-      <c r="C9" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>31599</v>
-      </c>
-      <c r="C10" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1470586905</v>
-      </c>
-      <c r="B11" s="1">
-        <v>35565</v>
-      </c>
-      <c r="C11" s="1">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
-        <v>38865</v>
-      </c>
-      <c r="C12" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1">
-        <v>40304</v>
-      </c>
-      <c r="C13" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1">
-        <v>40822</v>
-      </c>
-      <c r="C14" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1">
-        <v>40931</v>
-      </c>
-      <c r="C15" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1">
-        <v>41415</v>
-      </c>
-      <c r="C16" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1">
-        <v>41494</v>
-      </c>
-      <c r="C17" s="1">
-        <v>79.900000000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1">
-        <v>42575</v>
-      </c>
-      <c r="C18" s="1">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1">
-        <v>43396</v>
-      </c>
-      <c r="C19" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1">
-        <v>43422</v>
-      </c>
-      <c r="C20" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1">
-        <v>43797</v>
-      </c>
-      <c r="C21" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1">
-        <v>44072</v>
-      </c>
-      <c r="C22" s="1">
-        <v>59.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1">
-        <v>44343</v>
-      </c>
-      <c r="C23" s="1">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1">
-        <v>44496</v>
-      </c>
-      <c r="C24" s="1">
-        <v>59.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1">
-        <v>44563</v>
-      </c>
-      <c r="C25" s="1">
-        <v>49.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1">
-        <v>44596</v>
-      </c>
-      <c r="C26" s="1">
-        <v>49.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1">
-        <v>44756</v>
-      </c>
-      <c r="C27" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1">
-        <v>44938</v>
-      </c>
-      <c r="C28" s="1">
-        <v>59.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="1">
-        <v>46225</v>
-      </c>
-      <c r="C29" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1">
-        <v>46482</v>
-      </c>
-      <c r="C30" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>1470586472</v>
-      </c>
-      <c r="B31" s="1">
-        <v>46838</v>
-      </c>
-      <c r="C31" s="1">
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1">
-        <v>47157</v>
-      </c>
-      <c r="C32" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1">
-        <v>47712</v>
-      </c>
-      <c r="C33" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1">
-        <v>47811</v>
-      </c>
-      <c r="C34" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>1470586382</v>
-      </c>
-      <c r="B35" s="1">
-        <v>47962</v>
-      </c>
-      <c r="C35" s="1">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>1470586974</v>
-      </c>
-      <c r="B36" s="1">
-        <v>48168</v>
-      </c>
-      <c r="C36" s="1">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="1">
-        <v>48899</v>
-      </c>
-      <c r="C37" s="1">
-        <v>49.9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="1">
-        <v>48912</v>
-      </c>
-      <c r="C38" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>1470586402</v>
-      </c>
-      <c r="B39" s="1">
-        <v>48961</v>
-      </c>
-      <c r="C39" s="1">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="1">
-        <v>49564</v>
-      </c>
-      <c r="C40" s="1">
-        <v>49.9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>1470586924</v>
-      </c>
-      <c r="B41" s="1">
-        <v>49568</v>
-      </c>
-      <c r="C41" s="1">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="1">
-        <v>49896</v>
-      </c>
-      <c r="C42" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="1">
-        <v>49896</v>
-      </c>
-      <c r="C43" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="1">
-        <v>49896</v>
-      </c>
-      <c r="C44" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="1">
-        <v>50460</v>
-      </c>
-      <c r="C45" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>1470586589</v>
-      </c>
-      <c r="B46" s="1">
-        <v>50923</v>
-      </c>
-      <c r="C46" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="1">
-        <v>51131</v>
-      </c>
-      <c r="C47" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="1">
-        <v>51281</v>
-      </c>
-      <c r="C48" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" s="1">
-        <v>51297</v>
-      </c>
-      <c r="C49" s="1">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>1470586437</v>
-      </c>
-      <c r="B50" s="1">
-        <v>51731</v>
-      </c>
-      <c r="C50" s="1">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="1">
-        <v>52264</v>
-      </c>
-      <c r="C51" s="1">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>1470586023</v>
-      </c>
-      <c r="B52" s="1">
-        <v>52892</v>
-      </c>
-      <c r="C52" s="1">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>1470586135</v>
-      </c>
-      <c r="B53" s="1">
-        <v>53580</v>
-      </c>
-      <c r="C53" s="1">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="3"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">

--- a/aplicacao/isencao.xlsx
+++ b/aplicacao/isencao.xlsx
@@ -368,7 +368,7 @@
   <dimension ref="A1:XFA654"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C51"/>
+      <selection activeCell="C4" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/aplicacao/isencao.xlsx
+++ b/aplicacao/isencao.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$C$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$C$62</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
   <si>
     <t>pdv</t>
   </si>
@@ -31,13 +31,184 @@
   </si>
   <si>
     <t>Serial</t>
+  </si>
+  <si>
+    <t>6P149470</t>
+  </si>
+  <si>
+    <t>6P149830</t>
+  </si>
+  <si>
+    <t>6P149522</t>
+  </si>
+  <si>
+    <t>6P149844</t>
+  </si>
+  <si>
+    <t>6P149872</t>
+  </si>
+  <si>
+    <t>6P150335</t>
+  </si>
+  <si>
+    <t>6P149140</t>
+  </si>
+  <si>
+    <t>6P150358</t>
+  </si>
+  <si>
+    <t>6P150045</t>
+  </si>
+  <si>
+    <t>6P149908</t>
+  </si>
+  <si>
+    <t>6P149643</t>
+  </si>
+  <si>
+    <t>6P150232</t>
+  </si>
+  <si>
+    <t>6P149124</t>
+  </si>
+  <si>
+    <t>6P149147</t>
+  </si>
+  <si>
+    <t>6P150548</t>
+  </si>
+  <si>
+    <t>6P150466</t>
+  </si>
+  <si>
+    <t>6P150266</t>
+  </si>
+  <si>
+    <t>6P150670</t>
+  </si>
+  <si>
+    <t>6P150634</t>
+  </si>
+  <si>
+    <t>6P150448</t>
+  </si>
+  <si>
+    <t>6P150178</t>
+  </si>
+  <si>
+    <t>6P149633</t>
+  </si>
+  <si>
+    <t>6P150528</t>
+  </si>
+  <si>
+    <t>6P149631</t>
+  </si>
+  <si>
+    <t>6P149980</t>
+  </si>
+  <si>
+    <t>6P149741</t>
+  </si>
+  <si>
+    <t>6P150347</t>
+  </si>
+  <si>
+    <t>6P150176</t>
+  </si>
+  <si>
+    <t>6P150527</t>
+  </si>
+  <si>
+    <t>6P149180</t>
+  </si>
+  <si>
+    <t>6P150399</t>
+  </si>
+  <si>
+    <t>6P149954</t>
+  </si>
+  <si>
+    <t>6P150922</t>
+  </si>
+  <si>
+    <t>6P149312</t>
+  </si>
+  <si>
+    <t>6P150925</t>
+  </si>
+  <si>
+    <t>6P149491</t>
+  </si>
+  <si>
+    <t>6P151002</t>
+  </si>
+  <si>
+    <t>6P149439</t>
+  </si>
+  <si>
+    <t>6P151003</t>
+  </si>
+  <si>
+    <t>6P149505</t>
+  </si>
+  <si>
+    <t>6P150911</t>
+  </si>
+  <si>
+    <t>6P149493</t>
+  </si>
+  <si>
+    <t>6P150253</t>
+  </si>
+  <si>
+    <t>6P149875</t>
+  </si>
+  <si>
+    <t>6P150932</t>
+  </si>
+  <si>
+    <t>6P150616</t>
+  </si>
+  <si>
+    <t>6P150402</t>
+  </si>
+  <si>
+    <t>6P764720</t>
+  </si>
+  <si>
+    <t>6P764653</t>
+  </si>
+  <si>
+    <t>6P764753</t>
+  </si>
+  <si>
+    <t>6P149977</t>
+  </si>
+  <si>
+    <t>6P149910</t>
+  </si>
+  <si>
+    <t>6P764499</t>
+  </si>
+  <si>
+    <t>6P764718</t>
+  </si>
+  <si>
+    <t>19.9</t>
+  </si>
+  <si>
+    <t>69.9</t>
+  </si>
+  <si>
+    <t>9.9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,13 +224,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -74,15 +264,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -365,19 +561,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFA654"/>
+  <dimension ref="A1:XFA552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="A2:C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16381" width="19.85546875" style="1" hidden="1"/>
-    <col min="16382" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="1" max="1" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16381" width="19.85546875" style="3" hidden="1"/>
+    <col min="16382" max="16384" width="9.140625" style="3" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -391,1808 +587,2156 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="3"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="3"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="3"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="3"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="3"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="3"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="3"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="3"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="3"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="3"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="3"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="3"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="3"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="3"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="3"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78" s="3"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79" s="3"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C80" s="3"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
+        <v>55865</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <v>55868</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
+        <v>55868</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5">
+        <v>55871</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>55927</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5">
+        <v>55952</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5">
+        <v>55957</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5">
+        <v>56005</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5">
+        <v>56010</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5">
+        <v>56010</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="5">
+        <v>56049</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5">
+        <v>56049</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5">
+        <v>56054</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5">
+        <v>56069</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5">
+        <v>56069</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5">
+        <v>56069</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5">
+        <v>56069</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="5">
+        <v>56177</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="5">
+        <v>56177</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="5">
+        <v>56177</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="5">
+        <v>56177</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="5">
+        <v>56178</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="5">
+        <v>56178</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="5">
+        <v>56184</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>1470586732</v>
+      </c>
+      <c r="B26" s="5">
+        <v>56186</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>1470586122</v>
+      </c>
+      <c r="B27" s="5">
+        <v>56186</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>1470586731</v>
+      </c>
+      <c r="B28" s="5">
+        <v>56186</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5">
+        <v>56186</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5">
+        <v>56207</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5">
+        <v>56212</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5">
+        <v>56243</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5">
+        <v>56297</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5">
+        <v>56298</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5">
+        <v>56307</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5">
+        <v>56307</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5">
+        <v>56347</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5">
+        <v>56351</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>1470586658</v>
+      </c>
+      <c r="B39" s="5">
+        <v>56360</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="5">
+        <v>56392</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="5">
+        <v>56392</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="5">
+        <v>56402</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="5">
+        <v>56403</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>1470586167</v>
+      </c>
+      <c r="B44" s="5">
+        <v>56426</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="5">
+        <v>56436</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="5">
+        <v>56460</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="5">
+        <v>56495</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="5">
+        <v>56496</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="5">
+        <v>56498</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="5">
+        <v>56555</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="5">
+        <v>56555</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>1470586816</v>
+      </c>
+      <c r="B52" s="5">
+        <v>56556</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="5">
+        <v>56557</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="5">
+        <v>56559</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="5">
+        <v>56563</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="5">
+        <v>56563</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="5">
+        <v>56563</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="5">
+        <v>56565</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="5">
+        <v>56599</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="5">
+        <v>56606</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="5">
+        <v>56606</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>1470586034</v>
+      </c>
+      <c r="B62" s="5">
+        <v>56655</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="4"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="4"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="4"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="4"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="4"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="3"/>
+      <c r="C81" s="4"/>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="3"/>
+      <c r="C82" s="4"/>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="3"/>
+      <c r="C83" s="4"/>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="3"/>
+      <c r="C84" s="4"/>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" s="3"/>
+      <c r="C85" s="4"/>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="3"/>
+      <c r="C86" s="4"/>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87" s="3"/>
+      <c r="C87" s="4"/>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88" s="3"/>
+      <c r="C88" s="4"/>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89" s="3"/>
+      <c r="C89" s="4"/>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90" s="3"/>
+      <c r="C90" s="4"/>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="3"/>
+      <c r="C91" s="4"/>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C92" s="3"/>
+      <c r="C92" s="4"/>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="3"/>
+      <c r="C93" s="4"/>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C94" s="3"/>
+      <c r="C94" s="4"/>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C95" s="3"/>
+      <c r="C95" s="4"/>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C96" s="3"/>
+      <c r="C96" s="4"/>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" s="3"/>
+      <c r="C97" s="4"/>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="3"/>
+      <c r="C98" s="4"/>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" s="3"/>
+      <c r="C99" s="4"/>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" s="3"/>
+      <c r="C100" s="4"/>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="3"/>
+      <c r="C101" s="4"/>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C102" s="3"/>
+      <c r="C102" s="4"/>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C103" s="3"/>
+      <c r="C103" s="4"/>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C104" s="3"/>
+      <c r="C104" s="4"/>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C105" s="3"/>
+      <c r="C105" s="4"/>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C106" s="3"/>
+      <c r="C106" s="4"/>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C107" s="3"/>
+      <c r="C107" s="4"/>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C108" s="3"/>
+      <c r="C108" s="4"/>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C109" s="3"/>
+      <c r="C109" s="4"/>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C110" s="3"/>
+      <c r="C110" s="4"/>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C111" s="3"/>
+      <c r="C111" s="4"/>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C112" s="3"/>
+      <c r="C112" s="4"/>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C113" s="3"/>
+      <c r="C113" s="4"/>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C114" s="3"/>
+      <c r="C114" s="4"/>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C115" s="3"/>
+      <c r="C115" s="4"/>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C116" s="3"/>
+      <c r="C116" s="4"/>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C117" s="3"/>
+      <c r="C117" s="4"/>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C118" s="3"/>
+      <c r="C118" s="4"/>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C119" s="3"/>
+      <c r="C119" s="4"/>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C120" s="3"/>
+      <c r="C120" s="4"/>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C121" s="3"/>
+      <c r="C121" s="4"/>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C122" s="3"/>
+      <c r="C122" s="4"/>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C123" s="3"/>
+      <c r="C123" s="4"/>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C124" s="3"/>
+      <c r="C124" s="4"/>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C125" s="3"/>
+      <c r="C125" s="4"/>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C126" s="3"/>
+      <c r="C126" s="4"/>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C127" s="3"/>
+      <c r="C127" s="4"/>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C128" s="3"/>
+      <c r="C128" s="4"/>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="3"/>
+      <c r="C129" s="4"/>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="3"/>
+      <c r="C130" s="4"/>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="3"/>
+      <c r="C131" s="4"/>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="3"/>
+      <c r="C132" s="4"/>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="3"/>
+      <c r="C133" s="4"/>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="3"/>
+      <c r="C134" s="4"/>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="3"/>
+      <c r="C135" s="4"/>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="3"/>
+      <c r="C136" s="4"/>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="3"/>
+      <c r="C137" s="4"/>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="3"/>
+      <c r="C138" s="4"/>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="3"/>
+      <c r="C139" s="4"/>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="3"/>
+      <c r="C140" s="4"/>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="3"/>
+      <c r="C141" s="4"/>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="3"/>
+      <c r="C142" s="4"/>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="3"/>
+      <c r="C143" s="4"/>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="3"/>
+      <c r="C144" s="4"/>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="3"/>
+      <c r="C145" s="4"/>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="3"/>
+      <c r="C146" s="4"/>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="3"/>
+      <c r="C147" s="4"/>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="3"/>
+      <c r="C148" s="4"/>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="3"/>
+      <c r="C149" s="4"/>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="3"/>
+      <c r="C150" s="4"/>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="3"/>
+      <c r="C151" s="4"/>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="3"/>
+      <c r="C152" s="4"/>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="3"/>
+      <c r="C153" s="4"/>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="3"/>
+      <c r="C154" s="4"/>
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="3"/>
+      <c r="C155" s="4"/>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="3"/>
+      <c r="C156" s="4"/>
     </row>
     <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="3"/>
+      <c r="C157" s="4"/>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="3"/>
+      <c r="C158" s="4"/>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="3"/>
+      <c r="C159" s="4"/>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="3"/>
+      <c r="C160" s="4"/>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="3"/>
+      <c r="C161" s="4"/>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="3"/>
+      <c r="C162" s="4"/>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="3"/>
+      <c r="C163" s="4"/>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="3"/>
+      <c r="C164" s="4"/>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="3"/>
+      <c r="C165" s="4"/>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="3"/>
+      <c r="C166" s="4"/>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="3"/>
+      <c r="C167" s="4"/>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="3"/>
+      <c r="C168" s="4"/>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="3"/>
+      <c r="C169" s="4"/>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="3"/>
+      <c r="C170" s="4"/>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="3"/>
+      <c r="C171" s="4"/>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="3"/>
+      <c r="C172" s="4"/>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="3"/>
+      <c r="C173" s="4"/>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="3"/>
+      <c r="C174" s="4"/>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="3"/>
+      <c r="C175" s="4"/>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="3"/>
+      <c r="C176" s="4"/>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="3"/>
+      <c r="C177" s="4"/>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="3"/>
+      <c r="C178" s="4"/>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="3"/>
+      <c r="C179" s="4"/>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="3"/>
+      <c r="C180" s="4"/>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="3"/>
+      <c r="C181" s="4"/>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="3"/>
+      <c r="C182" s="4"/>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="3"/>
+      <c r="C183" s="4"/>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="3"/>
+      <c r="C184" s="4"/>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="3"/>
+      <c r="C185" s="4"/>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="3"/>
+      <c r="C186" s="4"/>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="3"/>
+      <c r="C187" s="4"/>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="3"/>
+      <c r="C188" s="4"/>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="3"/>
+      <c r="C189" s="4"/>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="3"/>
+      <c r="C190" s="4"/>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="3"/>
+      <c r="C191" s="4"/>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="3"/>
+      <c r="C192" s="4"/>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="3"/>
+      <c r="C193" s="4"/>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C194" s="3"/>
+      <c r="C194" s="4"/>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C195" s="3"/>
+      <c r="C195" s="4"/>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C196" s="3"/>
+      <c r="C196" s="4"/>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C197" s="3"/>
+      <c r="C197" s="4"/>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C198" s="3"/>
+      <c r="C198" s="4"/>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C199" s="3"/>
+      <c r="C199" s="4"/>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C200" s="3"/>
+      <c r="C200" s="4"/>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C201" s="3"/>
+      <c r="C201" s="4"/>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C202" s="3"/>
+      <c r="C202" s="4"/>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C203" s="3"/>
+      <c r="C203" s="4"/>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C204" s="3"/>
+      <c r="C204" s="4"/>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C205" s="3"/>
+      <c r="C205" s="4"/>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C206" s="3"/>
+      <c r="C206" s="4"/>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C207" s="3"/>
+      <c r="C207" s="4"/>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C208" s="3"/>
+      <c r="C208" s="4"/>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C209" s="3"/>
+      <c r="C209" s="4"/>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C210" s="3"/>
+      <c r="C210" s="4"/>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C211" s="3"/>
+      <c r="C211" s="4"/>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C212" s="3"/>
+      <c r="C212" s="4"/>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C213" s="3"/>
+      <c r="C213" s="4"/>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C214" s="3"/>
+      <c r="C214" s="4"/>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C215" s="3"/>
+      <c r="C215" s="4"/>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C216" s="3"/>
+      <c r="C216" s="4"/>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C217" s="3"/>
+      <c r="C217" s="4"/>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C218" s="3"/>
+      <c r="C218" s="4"/>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C219" s="3"/>
+      <c r="C219" s="4"/>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C220" s="3"/>
+      <c r="C220" s="4"/>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C221" s="3"/>
+      <c r="C221" s="4"/>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C222" s="3"/>
+      <c r="C222" s="4"/>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C223" s="3"/>
+      <c r="C223" s="4"/>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C224" s="3"/>
+      <c r="C224" s="4"/>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C225" s="3"/>
+      <c r="C225" s="4"/>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C226" s="3"/>
+      <c r="C226" s="4"/>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C227" s="3"/>
+      <c r="C227" s="4"/>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C228" s="3"/>
+      <c r="C228" s="4"/>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C229" s="3"/>
+      <c r="C229" s="4"/>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C230" s="3"/>
+      <c r="C230" s="4"/>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C231" s="3"/>
+      <c r="C231" s="4"/>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C232" s="3"/>
+      <c r="C232" s="4"/>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C233" s="3"/>
+      <c r="C233" s="4"/>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C234" s="3"/>
+      <c r="C234" s="4"/>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C235" s="3"/>
+      <c r="C235" s="4"/>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C236" s="3"/>
+      <c r="C236" s="4"/>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C237" s="3"/>
+      <c r="C237" s="4"/>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C238" s="3"/>
+      <c r="C238" s="4"/>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C239" s="3"/>
+      <c r="C239" s="4"/>
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C240" s="3"/>
+      <c r="C240" s="4"/>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C241" s="3"/>
+      <c r="C241" s="4"/>
     </row>
     <row r="242" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C242" s="3"/>
+      <c r="C242" s="4"/>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C243" s="3"/>
+      <c r="C243" s="4"/>
     </row>
     <row r="244" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C244" s="3"/>
+      <c r="C244" s="4"/>
     </row>
     <row r="245" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C245" s="3"/>
+      <c r="C245" s="4"/>
     </row>
     <row r="246" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C246" s="3"/>
+      <c r="C246" s="4"/>
     </row>
     <row r="247" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C247" s="3"/>
+      <c r="C247" s="4"/>
     </row>
     <row r="248" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C248" s="3"/>
+      <c r="C248" s="4"/>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C249" s="3"/>
+      <c r="C249" s="4"/>
     </row>
     <row r="250" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C250" s="3"/>
+      <c r="C250" s="4"/>
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C251" s="3"/>
+      <c r="C251" s="4"/>
     </row>
     <row r="252" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C252" s="3"/>
+      <c r="C252" s="4"/>
     </row>
     <row r="253" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C253" s="3"/>
+      <c r="C253" s="4"/>
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C254" s="3"/>
+      <c r="C254" s="4"/>
     </row>
     <row r="255" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C255" s="3"/>
+      <c r="C255" s="4"/>
     </row>
     <row r="256" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C256" s="3"/>
+      <c r="C256" s="4"/>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C257" s="3"/>
+      <c r="C257" s="4"/>
     </row>
     <row r="258" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C258" s="3"/>
+      <c r="C258" s="4"/>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C259" s="3"/>
+      <c r="C259" s="4"/>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C260" s="3"/>
+      <c r="C260" s="4"/>
     </row>
     <row r="261" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C261" s="3"/>
+      <c r="C261" s="4"/>
     </row>
     <row r="262" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C262" s="3"/>
+      <c r="C262" s="4"/>
     </row>
     <row r="263" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C263" s="3"/>
+      <c r="C263" s="4"/>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C264" s="3"/>
+      <c r="C264" s="4"/>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C265" s="3"/>
+      <c r="C265" s="4"/>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C266" s="3"/>
+      <c r="C266" s="4"/>
     </row>
     <row r="267" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C267" s="3"/>
+      <c r="C267" s="4"/>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C268" s="3"/>
+      <c r="C268" s="4"/>
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C269" s="3"/>
+      <c r="C269" s="4"/>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C270" s="3"/>
+      <c r="C270" s="4"/>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C271" s="3"/>
+      <c r="C271" s="4"/>
     </row>
     <row r="272" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C272" s="3"/>
+      <c r="C272" s="4"/>
     </row>
     <row r="273" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C273" s="3"/>
+      <c r="C273" s="4"/>
     </row>
     <row r="274" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C274" s="3"/>
+      <c r="C274" s="4"/>
     </row>
     <row r="275" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C275" s="3"/>
+      <c r="C275" s="4"/>
     </row>
     <row r="276" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C276" s="3"/>
+      <c r="C276" s="4"/>
     </row>
     <row r="277" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C277" s="3"/>
+      <c r="C277" s="4"/>
     </row>
     <row r="278" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C278" s="3"/>
+      <c r="C278" s="4"/>
     </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C279" s="3"/>
+      <c r="C279" s="4"/>
     </row>
     <row r="280" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C280" s="3"/>
+      <c r="C280" s="4"/>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C281" s="3"/>
+      <c r="C281" s="4"/>
     </row>
     <row r="282" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C282" s="3"/>
+      <c r="C282" s="4"/>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C283" s="3"/>
+      <c r="C283" s="4"/>
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C284" s="3"/>
+      <c r="C284" s="4"/>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C285" s="3"/>
+      <c r="C285" s="4"/>
     </row>
     <row r="286" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C286" s="3"/>
+      <c r="C286" s="4"/>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C287" s="3"/>
+      <c r="C287" s="4"/>
     </row>
     <row r="288" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C288" s="3"/>
+      <c r="C288" s="4"/>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C289" s="3"/>
+      <c r="C289" s="4"/>
     </row>
     <row r="290" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C290" s="3"/>
+      <c r="C290" s="4"/>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C291" s="3"/>
+      <c r="C291" s="4"/>
     </row>
     <row r="292" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C292" s="3"/>
+      <c r="C292" s="4"/>
     </row>
     <row r="293" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C293" s="3"/>
+      <c r="C293" s="4"/>
     </row>
     <row r="294" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C294" s="3"/>
+      <c r="C294" s="4"/>
     </row>
     <row r="295" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C295" s="3"/>
+      <c r="C295" s="4"/>
     </row>
     <row r="296" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C296" s="3"/>
+      <c r="C296" s="4"/>
     </row>
     <row r="297" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C297" s="3"/>
+      <c r="C297" s="4"/>
     </row>
     <row r="298" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C298" s="3"/>
+      <c r="C298" s="4"/>
     </row>
     <row r="299" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C299" s="3"/>
+      <c r="C299" s="4"/>
     </row>
     <row r="300" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C300" s="3"/>
+      <c r="C300" s="4"/>
     </row>
     <row r="301" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C301" s="3"/>
+      <c r="C301" s="4"/>
     </row>
     <row r="302" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C302" s="3"/>
+      <c r="C302" s="4"/>
     </row>
     <row r="303" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C303" s="3"/>
+      <c r="C303" s="4"/>
     </row>
     <row r="304" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C304" s="3"/>
+      <c r="C304" s="4"/>
     </row>
     <row r="305" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C305" s="3"/>
+      <c r="C305" s="4"/>
     </row>
     <row r="306" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C306" s="3"/>
+      <c r="C306" s="4"/>
     </row>
     <row r="307" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C307" s="3"/>
+      <c r="C307" s="4"/>
     </row>
     <row r="308" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C308" s="3"/>
+      <c r="C308" s="4"/>
     </row>
     <row r="309" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C309" s="3"/>
+      <c r="C309" s="4"/>
     </row>
     <row r="310" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C310" s="3"/>
+      <c r="C310" s="4"/>
     </row>
     <row r="311" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C311" s="3"/>
+      <c r="C311" s="4"/>
     </row>
     <row r="312" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C312" s="3"/>
+      <c r="C312" s="4"/>
     </row>
     <row r="313" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C313" s="3"/>
+      <c r="C313" s="4"/>
     </row>
     <row r="314" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C314" s="3"/>
+      <c r="C314" s="4"/>
     </row>
     <row r="315" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C315" s="3"/>
+      <c r="C315" s="4"/>
     </row>
     <row r="316" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C316" s="3"/>
+      <c r="C316" s="4"/>
     </row>
     <row r="317" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C317" s="3"/>
+      <c r="C317" s="4"/>
     </row>
     <row r="318" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C318" s="3"/>
+      <c r="C318" s="4"/>
     </row>
     <row r="319" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C319" s="3"/>
+      <c r="C319" s="4"/>
     </row>
     <row r="320" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C320" s="3"/>
+      <c r="C320" s="4"/>
     </row>
     <row r="321" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C321" s="3"/>
+      <c r="C321" s="4"/>
     </row>
     <row r="322" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C322" s="3"/>
+      <c r="C322" s="4"/>
     </row>
     <row r="323" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C323" s="3"/>
+      <c r="C323" s="4"/>
     </row>
     <row r="324" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C324" s="3"/>
+      <c r="C324" s="4"/>
     </row>
     <row r="325" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C325" s="3"/>
+      <c r="C325" s="4"/>
     </row>
     <row r="326" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C326" s="3"/>
+      <c r="C326" s="4"/>
     </row>
     <row r="327" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C327" s="3"/>
+      <c r="C327" s="4"/>
     </row>
     <row r="328" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C328" s="3"/>
+      <c r="C328" s="4"/>
     </row>
     <row r="329" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C329" s="3"/>
+      <c r="C329" s="4"/>
     </row>
     <row r="330" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C330" s="3"/>
+      <c r="C330" s="4"/>
     </row>
     <row r="331" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C331" s="3"/>
+      <c r="C331" s="4"/>
     </row>
     <row r="332" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C332" s="3"/>
+      <c r="C332" s="4"/>
     </row>
     <row r="333" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C333" s="3"/>
+      <c r="C333" s="4"/>
     </row>
     <row r="334" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C334" s="3"/>
+      <c r="C334" s="4"/>
     </row>
     <row r="335" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C335" s="3"/>
+      <c r="C335" s="4"/>
     </row>
     <row r="336" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C336" s="3"/>
+      <c r="C336" s="4"/>
     </row>
     <row r="337" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C337" s="3"/>
+      <c r="C337" s="4"/>
     </row>
     <row r="338" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C338" s="3"/>
+      <c r="C338" s="4"/>
     </row>
     <row r="339" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C339" s="3"/>
+      <c r="C339" s="4"/>
     </row>
     <row r="340" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C340" s="3"/>
+      <c r="C340" s="4"/>
     </row>
     <row r="341" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C341" s="3"/>
+      <c r="C341" s="4"/>
     </row>
     <row r="342" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C342" s="3"/>
+      <c r="C342" s="4"/>
     </row>
     <row r="343" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C343" s="3"/>
+      <c r="C343" s="4"/>
     </row>
     <row r="344" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C344" s="3"/>
+      <c r="C344" s="4"/>
     </row>
     <row r="345" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C345" s="3"/>
+      <c r="C345" s="4"/>
     </row>
     <row r="346" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C346" s="3"/>
+      <c r="C346" s="4"/>
     </row>
     <row r="347" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C347" s="3"/>
+      <c r="C347" s="4"/>
     </row>
     <row r="348" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C348" s="3"/>
+      <c r="C348" s="4"/>
     </row>
     <row r="349" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C349" s="3"/>
+      <c r="C349" s="4"/>
     </row>
     <row r="350" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C350" s="3"/>
+      <c r="C350" s="4"/>
     </row>
     <row r="351" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C351" s="3"/>
+      <c r="C351" s="4"/>
     </row>
     <row r="352" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C352" s="3"/>
+      <c r="C352" s="4"/>
     </row>
     <row r="353" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C353" s="3"/>
+      <c r="C353" s="4"/>
     </row>
     <row r="354" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C354" s="3"/>
+      <c r="C354" s="4"/>
     </row>
     <row r="355" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C355" s="3"/>
+      <c r="C355" s="4"/>
     </row>
     <row r="356" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C356" s="3"/>
+      <c r="C356" s="4"/>
     </row>
     <row r="357" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C357" s="3"/>
+      <c r="C357" s="4"/>
     </row>
     <row r="358" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C358" s="3"/>
+      <c r="C358" s="4"/>
     </row>
     <row r="359" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C359" s="3"/>
+      <c r="C359" s="4"/>
     </row>
     <row r="360" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C360" s="3"/>
+      <c r="C360" s="4"/>
     </row>
     <row r="361" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C361" s="3"/>
+      <c r="C361" s="4"/>
     </row>
     <row r="362" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C362" s="3"/>
+      <c r="C362" s="4"/>
     </row>
     <row r="363" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C363" s="3"/>
+      <c r="C363" s="4"/>
     </row>
     <row r="364" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C364" s="3"/>
+      <c r="C364" s="4"/>
     </row>
     <row r="365" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C365" s="3"/>
+      <c r="C365" s="4"/>
     </row>
     <row r="366" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C366" s="3"/>
+      <c r="C366" s="4"/>
     </row>
     <row r="367" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C367" s="3"/>
+      <c r="C367" s="4"/>
     </row>
     <row r="368" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C368" s="3"/>
+      <c r="C368" s="4"/>
     </row>
     <row r="369" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C369" s="3"/>
+      <c r="C369" s="4"/>
     </row>
     <row r="370" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C370" s="3"/>
+      <c r="C370" s="4"/>
     </row>
     <row r="371" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C371" s="3"/>
+      <c r="C371" s="4"/>
     </row>
     <row r="372" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C372" s="3"/>
+      <c r="C372" s="4"/>
     </row>
     <row r="373" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C373" s="3"/>
+      <c r="C373" s="4"/>
     </row>
     <row r="374" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C374" s="3"/>
+      <c r="C374" s="4"/>
     </row>
     <row r="375" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C375" s="3"/>
+      <c r="C375" s="4"/>
     </row>
     <row r="376" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C376" s="3"/>
+      <c r="C376" s="4"/>
     </row>
     <row r="377" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C377" s="3"/>
+      <c r="C377" s="4"/>
     </row>
     <row r="378" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C378" s="3"/>
+      <c r="C378" s="4"/>
     </row>
     <row r="379" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C379" s="3"/>
+      <c r="C379" s="4"/>
     </row>
     <row r="380" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C380" s="3"/>
+      <c r="C380" s="4"/>
     </row>
     <row r="381" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C381" s="3"/>
+      <c r="C381" s="4"/>
     </row>
     <row r="382" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C382" s="3"/>
+      <c r="C382" s="4"/>
     </row>
     <row r="383" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C383" s="3"/>
+      <c r="C383" s="4"/>
     </row>
     <row r="384" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C384" s="3"/>
+      <c r="C384" s="4"/>
     </row>
     <row r="385" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C385" s="3"/>
+      <c r="C385" s="4"/>
     </row>
     <row r="386" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C386" s="3"/>
+      <c r="C386" s="4"/>
     </row>
     <row r="387" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C387" s="3"/>
+      <c r="C387" s="4"/>
     </row>
     <row r="388" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C388" s="3"/>
+      <c r="C388" s="4"/>
     </row>
     <row r="389" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C389" s="3"/>
+      <c r="C389" s="4"/>
     </row>
     <row r="390" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C390" s="3"/>
+      <c r="C390" s="4"/>
     </row>
     <row r="391" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C391" s="3"/>
+      <c r="C391" s="4"/>
     </row>
     <row r="392" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C392" s="3"/>
+      <c r="C392" s="4"/>
     </row>
     <row r="393" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C393" s="3"/>
+      <c r="C393" s="4"/>
     </row>
     <row r="394" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C394" s="3"/>
+      <c r="C394" s="4"/>
     </row>
     <row r="395" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C395" s="3"/>
+      <c r="C395" s="4"/>
     </row>
     <row r="396" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C396" s="3"/>
+      <c r="C396" s="4"/>
     </row>
     <row r="397" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C397" s="3"/>
+      <c r="C397" s="4"/>
     </row>
     <row r="398" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C398" s="3"/>
+      <c r="C398" s="4"/>
     </row>
     <row r="399" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C399" s="3"/>
+      <c r="C399" s="4"/>
     </row>
     <row r="400" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C400" s="3"/>
+      <c r="C400" s="4"/>
     </row>
     <row r="401" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C401" s="3"/>
+      <c r="C401" s="4"/>
     </row>
     <row r="402" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C402" s="3"/>
+      <c r="C402" s="4"/>
     </row>
     <row r="403" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C403" s="3"/>
+      <c r="C403" s="4"/>
     </row>
     <row r="404" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C404" s="3"/>
+      <c r="C404" s="4"/>
     </row>
     <row r="405" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C405" s="3"/>
+      <c r="C405" s="4"/>
     </row>
     <row r="406" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C406" s="3"/>
+      <c r="C406" s="4"/>
     </row>
     <row r="407" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C407" s="3"/>
+      <c r="C407" s="4"/>
     </row>
     <row r="408" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C408" s="3"/>
+      <c r="C408" s="4"/>
     </row>
     <row r="409" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C409" s="3"/>
+      <c r="C409" s="4"/>
     </row>
     <row r="410" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C410" s="3"/>
+      <c r="C410" s="4"/>
     </row>
     <row r="411" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C411" s="3"/>
+      <c r="C411" s="4"/>
     </row>
     <row r="412" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C412" s="3"/>
+      <c r="C412" s="4"/>
     </row>
     <row r="413" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C413" s="3"/>
+      <c r="C413" s="4"/>
     </row>
     <row r="414" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C414" s="3"/>
+      <c r="C414" s="4"/>
     </row>
     <row r="415" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C415" s="3"/>
+      <c r="C415" s="4"/>
     </row>
     <row r="416" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C416" s="3"/>
+      <c r="C416" s="4"/>
     </row>
     <row r="417" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C417" s="3"/>
+      <c r="C417" s="4"/>
     </row>
     <row r="418" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C418" s="3"/>
+      <c r="C418" s="4"/>
     </row>
     <row r="419" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C419" s="3"/>
+      <c r="C419" s="4"/>
     </row>
     <row r="420" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C420" s="3"/>
+      <c r="C420" s="4"/>
     </row>
     <row r="421" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C421" s="3"/>
+      <c r="C421" s="4"/>
     </row>
     <row r="422" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C422" s="3"/>
+      <c r="C422" s="4"/>
     </row>
     <row r="423" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C423" s="3"/>
+      <c r="C423" s="4"/>
     </row>
     <row r="424" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C424" s="3"/>
+      <c r="C424" s="4"/>
     </row>
     <row r="425" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C425" s="3"/>
+      <c r="C425" s="4"/>
     </row>
     <row r="426" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C426" s="3"/>
+      <c r="C426" s="4"/>
     </row>
     <row r="427" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C427" s="3"/>
+      <c r="C427" s="4"/>
     </row>
     <row r="428" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C428" s="3"/>
+      <c r="C428" s="4"/>
     </row>
     <row r="429" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C429" s="3"/>
+      <c r="C429" s="4"/>
     </row>
     <row r="430" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C430" s="3"/>
+      <c r="C430" s="4"/>
     </row>
     <row r="431" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C431" s="3"/>
+      <c r="C431" s="4"/>
     </row>
     <row r="432" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C432" s="3"/>
+      <c r="C432" s="4"/>
     </row>
     <row r="433" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C433" s="3"/>
+      <c r="C433" s="4"/>
     </row>
     <row r="434" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C434" s="3"/>
+      <c r="C434" s="4"/>
     </row>
     <row r="435" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C435" s="3"/>
+      <c r="C435" s="4"/>
     </row>
     <row r="436" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C436" s="3"/>
+      <c r="C436" s="4"/>
     </row>
     <row r="437" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C437" s="3"/>
+      <c r="C437" s="4"/>
     </row>
     <row r="438" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C438" s="3"/>
+      <c r="C438" s="4"/>
     </row>
     <row r="439" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C439" s="3"/>
+      <c r="C439" s="4"/>
     </row>
     <row r="440" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C440" s="3"/>
+      <c r="C440" s="4"/>
     </row>
     <row r="441" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C441" s="3"/>
+      <c r="C441" s="4"/>
     </row>
     <row r="442" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C442" s="3"/>
+      <c r="C442" s="4"/>
     </row>
     <row r="443" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C443" s="3"/>
+      <c r="C443" s="4"/>
     </row>
     <row r="444" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C444" s="3"/>
+      <c r="C444" s="4"/>
     </row>
     <row r="445" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C445" s="3"/>
+      <c r="C445" s="4"/>
     </row>
     <row r="446" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C446" s="3"/>
+      <c r="C446" s="4"/>
     </row>
     <row r="447" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C447" s="3"/>
+      <c r="C447" s="4"/>
     </row>
     <row r="448" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C448" s="3"/>
+      <c r="C448" s="4"/>
     </row>
     <row r="449" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C449" s="3"/>
+      <c r="C449" s="4"/>
     </row>
     <row r="450" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C450" s="3"/>
+      <c r="C450" s="4"/>
     </row>
     <row r="451" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C451" s="3"/>
+      <c r="C451" s="4"/>
     </row>
     <row r="452" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C452" s="3"/>
+      <c r="C452" s="4"/>
     </row>
     <row r="453" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C453" s="3"/>
+      <c r="C453" s="4"/>
     </row>
     <row r="454" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C454" s="3"/>
+      <c r="C454" s="4"/>
     </row>
     <row r="455" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C455" s="3"/>
+      <c r="C455" s="4"/>
     </row>
     <row r="456" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C456" s="3"/>
+      <c r="C456" s="4"/>
     </row>
     <row r="457" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C457" s="3"/>
+      <c r="C457" s="4"/>
     </row>
     <row r="458" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C458" s="3"/>
+      <c r="C458" s="4"/>
     </row>
     <row r="459" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C459" s="3"/>
+      <c r="C459" s="4"/>
     </row>
     <row r="460" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C460" s="3"/>
+      <c r="C460" s="4"/>
     </row>
     <row r="461" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C461" s="3"/>
+      <c r="C461" s="4"/>
     </row>
     <row r="462" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C462" s="3"/>
+      <c r="C462" s="4"/>
     </row>
     <row r="463" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C463" s="3"/>
+      <c r="C463" s="4"/>
     </row>
     <row r="464" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C464" s="3"/>
+      <c r="C464" s="4"/>
     </row>
     <row r="465" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C465" s="3"/>
+      <c r="C465" s="4"/>
     </row>
     <row r="466" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C466" s="3"/>
+      <c r="C466" s="4"/>
     </row>
     <row r="467" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C467" s="3"/>
+      <c r="C467" s="4"/>
     </row>
     <row r="468" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C468" s="3"/>
+      <c r="C468" s="4"/>
     </row>
     <row r="469" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C469" s="3"/>
+      <c r="C469" s="4"/>
     </row>
     <row r="470" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C470" s="3"/>
+      <c r="C470" s="4"/>
     </row>
     <row r="471" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C471" s="3"/>
+      <c r="C471" s="4"/>
     </row>
     <row r="472" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C472" s="3"/>
+      <c r="C472" s="4"/>
     </row>
     <row r="473" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C473" s="3"/>
+      <c r="C473" s="4"/>
     </row>
     <row r="474" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C474" s="3"/>
+      <c r="C474" s="4"/>
     </row>
     <row r="475" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C475" s="3"/>
+      <c r="C475" s="4"/>
     </row>
     <row r="476" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C476" s="3"/>
+      <c r="C476" s="4"/>
     </row>
     <row r="477" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C477" s="3"/>
+      <c r="C477" s="4"/>
     </row>
     <row r="478" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C478" s="3"/>
+      <c r="C478" s="4"/>
     </row>
     <row r="479" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C479" s="3"/>
+      <c r="C479" s="4"/>
     </row>
     <row r="480" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C480" s="3"/>
+      <c r="C480" s="4"/>
     </row>
     <row r="481" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C481" s="3"/>
+      <c r="C481" s="4"/>
     </row>
     <row r="482" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C482" s="3"/>
+      <c r="C482" s="4"/>
     </row>
     <row r="483" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C483" s="3"/>
+      <c r="C483" s="4"/>
     </row>
     <row r="484" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C484" s="3"/>
+      <c r="C484" s="4"/>
     </row>
     <row r="485" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C485" s="3"/>
+      <c r="C485" s="4"/>
     </row>
     <row r="486" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C486" s="3"/>
+      <c r="C486" s="4"/>
     </row>
     <row r="487" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C487" s="3"/>
+      <c r="C487" s="4"/>
     </row>
     <row r="488" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C488" s="3"/>
+      <c r="C488" s="4"/>
     </row>
     <row r="489" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C489" s="3"/>
+      <c r="C489" s="4"/>
     </row>
     <row r="490" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C490" s="3"/>
+      <c r="C490" s="4"/>
     </row>
     <row r="491" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C491" s="3"/>
+      <c r="C491" s="4"/>
     </row>
     <row r="492" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C492" s="3"/>
+      <c r="C492" s="4"/>
     </row>
     <row r="493" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C493" s="3"/>
+      <c r="C493" s="4"/>
     </row>
     <row r="494" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C494" s="3"/>
+      <c r="C494" s="4"/>
     </row>
     <row r="495" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C495" s="3"/>
+      <c r="C495" s="4"/>
     </row>
     <row r="496" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C496" s="3"/>
+      <c r="C496" s="4"/>
     </row>
     <row r="497" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C497" s="3"/>
+      <c r="C497" s="4"/>
     </row>
     <row r="498" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C498" s="3"/>
+      <c r="C498" s="4"/>
     </row>
     <row r="499" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C499" s="3"/>
+      <c r="C499" s="4"/>
     </row>
     <row r="500" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C500" s="3"/>
+      <c r="C500" s="4"/>
     </row>
     <row r="501" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C501" s="3"/>
+      <c r="C501" s="4"/>
     </row>
     <row r="502" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C502" s="3"/>
+      <c r="C502" s="4"/>
     </row>
     <row r="503" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C503" s="3"/>
+      <c r="C503" s="4"/>
     </row>
     <row r="504" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C504" s="3"/>
+      <c r="C504" s="4"/>
     </row>
     <row r="505" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C505" s="3"/>
+      <c r="C505" s="4"/>
     </row>
     <row r="506" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C506" s="3"/>
+      <c r="C506" s="4"/>
     </row>
     <row r="507" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C507" s="3"/>
+      <c r="C507" s="4"/>
     </row>
     <row r="508" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C508" s="3"/>
+      <c r="C508" s="4"/>
     </row>
     <row r="509" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C509" s="3"/>
+      <c r="C509" s="4"/>
     </row>
     <row r="510" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C510" s="3"/>
+      <c r="C510" s="4"/>
     </row>
     <row r="511" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C511" s="3"/>
+      <c r="C511" s="4"/>
     </row>
     <row r="512" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C512" s="3"/>
+      <c r="C512" s="4"/>
     </row>
     <row r="513" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C513" s="3"/>
+      <c r="C513" s="4"/>
     </row>
     <row r="514" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C514" s="3"/>
+      <c r="C514" s="4"/>
     </row>
     <row r="515" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C515" s="3"/>
+      <c r="C515" s="4"/>
     </row>
     <row r="516" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C516" s="3"/>
+      <c r="C516" s="4"/>
     </row>
     <row r="517" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C517" s="3"/>
+      <c r="C517" s="4"/>
     </row>
     <row r="518" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C518" s="3"/>
+      <c r="C518" s="4"/>
     </row>
     <row r="519" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C519" s="3"/>
+      <c r="C519" s="4"/>
     </row>
     <row r="520" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C520" s="3"/>
+      <c r="C520" s="4"/>
     </row>
     <row r="521" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C521" s="3"/>
+      <c r="C521" s="4"/>
     </row>
     <row r="522" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C522" s="3"/>
+      <c r="C522" s="4"/>
     </row>
     <row r="523" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C523" s="3"/>
+      <c r="C523" s="4"/>
     </row>
     <row r="524" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C524" s="3"/>
+      <c r="C524" s="4"/>
     </row>
     <row r="525" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C525" s="3"/>
+      <c r="C525" s="4"/>
     </row>
     <row r="526" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C526" s="3"/>
+      <c r="C526" s="4"/>
     </row>
     <row r="527" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C527" s="3"/>
+      <c r="C527" s="4"/>
     </row>
     <row r="528" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C528" s="3"/>
+      <c r="C528" s="4"/>
     </row>
     <row r="529" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C529" s="3"/>
+      <c r="C529" s="4"/>
     </row>
     <row r="530" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C530" s="3"/>
+      <c r="C530" s="4"/>
     </row>
     <row r="531" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C531" s="3"/>
+      <c r="C531" s="4"/>
     </row>
     <row r="532" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C532" s="3"/>
+      <c r="C532" s="4"/>
     </row>
     <row r="533" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C533" s="3"/>
+      <c r="C533" s="4"/>
     </row>
     <row r="534" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C534" s="3"/>
+      <c r="C534" s="4"/>
     </row>
     <row r="535" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C535" s="3"/>
+      <c r="C535" s="4"/>
     </row>
     <row r="536" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C536" s="3"/>
+      <c r="C536" s="4"/>
     </row>
     <row r="537" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C537" s="3"/>
+      <c r="C537" s="4"/>
     </row>
     <row r="538" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C538" s="3"/>
+      <c r="C538" s="4"/>
     </row>
     <row r="539" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C539" s="3"/>
+      <c r="C539" s="4"/>
     </row>
     <row r="540" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C540" s="3"/>
+      <c r="C540" s="4"/>
     </row>
     <row r="541" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C541" s="3"/>
+      <c r="C541" s="4"/>
     </row>
     <row r="542" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C542" s="3"/>
+      <c r="C542" s="4"/>
     </row>
     <row r="543" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C543" s="3"/>
+      <c r="C543" s="4"/>
     </row>
     <row r="544" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C544" s="3"/>
+      <c r="C544" s="4"/>
     </row>
     <row r="545" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C545" s="3"/>
+      <c r="C545" s="4"/>
     </row>
     <row r="546" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C546" s="3"/>
+      <c r="C546" s="4"/>
     </row>
     <row r="547" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C547" s="3"/>
+      <c r="C547" s="4"/>
     </row>
     <row r="548" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C548" s="3"/>
+      <c r="C548" s="4"/>
     </row>
     <row r="549" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C549" s="3"/>
+      <c r="C549" s="4"/>
     </row>
     <row r="550" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C550" s="3"/>
+      <c r="C550" s="4"/>
     </row>
     <row r="551" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C551" s="3"/>
+      <c r="C551" s="4"/>
     </row>
     <row r="552" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C552" s="3"/>
-    </row>
-    <row r="553" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C553" s="3"/>
-    </row>
-    <row r="554" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C554" s="3"/>
-    </row>
-    <row r="555" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C555" s="3"/>
-    </row>
-    <row r="556" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C556" s="3"/>
-    </row>
-    <row r="557" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C557" s="3"/>
-    </row>
-    <row r="558" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C558" s="3"/>
-    </row>
-    <row r="559" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C559" s="3"/>
-    </row>
-    <row r="560" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C560" s="3"/>
-    </row>
-    <row r="561" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C561" s="3"/>
-    </row>
-    <row r="562" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C562" s="3"/>
-    </row>
-    <row r="563" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C563" s="3"/>
-    </row>
-    <row r="564" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C564" s="3"/>
-    </row>
-    <row r="565" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C565" s="3"/>
-    </row>
-    <row r="566" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C566" s="3"/>
-    </row>
-    <row r="567" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C567" s="3"/>
-    </row>
-    <row r="568" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C568" s="3"/>
-    </row>
-    <row r="569" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C569" s="3"/>
-    </row>
-    <row r="570" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C570" s="3"/>
-    </row>
-    <row r="571" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C571" s="3"/>
-    </row>
-    <row r="572" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C572" s="3"/>
-    </row>
-    <row r="573" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C573" s="3"/>
-    </row>
-    <row r="574" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C574" s="3"/>
-    </row>
-    <row r="575" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C575" s="3"/>
-    </row>
-    <row r="576" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C576" s="3"/>
-    </row>
-    <row r="577" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C577" s="3"/>
-    </row>
-    <row r="578" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C578" s="3"/>
-    </row>
-    <row r="579" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C579" s="3"/>
-    </row>
-    <row r="580" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C580" s="3"/>
-    </row>
-    <row r="581" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C581" s="3"/>
-    </row>
-    <row r="582" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C582" s="3"/>
-    </row>
-    <row r="583" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C583" s="3"/>
-    </row>
-    <row r="584" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C584" s="3"/>
-    </row>
-    <row r="585" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C585" s="3"/>
-    </row>
-    <row r="586" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C586" s="3"/>
-    </row>
-    <row r="587" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C587" s="3"/>
-    </row>
-    <row r="588" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C588" s="3"/>
-    </row>
-    <row r="589" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C589" s="3"/>
-    </row>
-    <row r="590" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C590" s="3"/>
-    </row>
-    <row r="591" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C591" s="3"/>
-    </row>
-    <row r="592" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C592" s="3"/>
-    </row>
-    <row r="593" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C593" s="3"/>
-    </row>
-    <row r="594" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C594" s="3"/>
-    </row>
-    <row r="595" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C595" s="3"/>
-    </row>
-    <row r="596" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C596" s="3"/>
-    </row>
-    <row r="597" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C597" s="3"/>
-    </row>
-    <row r="598" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C598" s="3"/>
-    </row>
-    <row r="599" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C599" s="3"/>
-    </row>
-    <row r="600" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C600" s="3"/>
-    </row>
-    <row r="601" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C601" s="3"/>
-    </row>
-    <row r="602" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C602" s="3"/>
-    </row>
-    <row r="603" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C603" s="3"/>
-    </row>
-    <row r="604" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C604" s="3"/>
-    </row>
-    <row r="605" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C605" s="3"/>
-    </row>
-    <row r="606" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C606" s="3"/>
-    </row>
-    <row r="607" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C607" s="3"/>
-    </row>
-    <row r="608" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C608" s="3"/>
-    </row>
-    <row r="609" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C609" s="3"/>
-    </row>
-    <row r="610" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C610" s="3"/>
-    </row>
-    <row r="611" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C611" s="3"/>
-    </row>
-    <row r="612" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C612" s="3"/>
-    </row>
-    <row r="613" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C613" s="3"/>
-    </row>
-    <row r="614" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C614" s="3"/>
-    </row>
-    <row r="615" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C615" s="3"/>
-    </row>
-    <row r="616" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C616" s="3"/>
-    </row>
-    <row r="617" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C617" s="3"/>
-    </row>
-    <row r="618" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C618" s="3"/>
-    </row>
-    <row r="619" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C619" s="3"/>
-    </row>
-    <row r="620" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C620" s="3"/>
-    </row>
-    <row r="621" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C621" s="3"/>
-    </row>
-    <row r="622" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C622" s="3"/>
-    </row>
-    <row r="623" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C623" s="3"/>
-    </row>
-    <row r="624" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C624" s="3"/>
-    </row>
-    <row r="625" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C625" s="3"/>
-    </row>
-    <row r="626" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C626" s="3"/>
-    </row>
-    <row r="627" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C627" s="3"/>
-    </row>
-    <row r="628" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C628" s="3"/>
-    </row>
-    <row r="629" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C629" s="3"/>
-    </row>
-    <row r="630" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C630" s="3"/>
-    </row>
-    <row r="631" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C631" s="3"/>
-    </row>
-    <row r="632" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C632" s="3"/>
-    </row>
-    <row r="633" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C633" s="3"/>
-    </row>
-    <row r="634" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C634" s="3"/>
-    </row>
-    <row r="635" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C635" s="3"/>
-    </row>
-    <row r="636" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C636" s="3"/>
-    </row>
-    <row r="637" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C637" s="3"/>
-    </row>
-    <row r="638" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C638" s="3"/>
-    </row>
-    <row r="639" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C639" s="3"/>
-    </row>
-    <row r="640" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C640" s="3"/>
-    </row>
-    <row r="641" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C641" s="3"/>
-    </row>
-    <row r="642" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C642" s="3"/>
-    </row>
-    <row r="643" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C643" s="3"/>
-    </row>
-    <row r="644" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C644" s="3"/>
-    </row>
-    <row r="645" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C645" s="3"/>
-    </row>
-    <row r="646" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C646" s="3"/>
-    </row>
-    <row r="647" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C647" s="3"/>
-    </row>
-    <row r="648" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C648" s="3"/>
-    </row>
-    <row r="649" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C649" s="3"/>
-    </row>
-    <row r="650" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C650" s="3"/>
-    </row>
-    <row r="651" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C651" s="3"/>
-    </row>
-    <row r="652" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C652" s="3"/>
-    </row>
-    <row r="653" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C653" s="3"/>
-    </row>
-    <row r="654" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C654" s="3"/>
+      <c r="C552" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aplicacao/isencao.xlsx
+++ b/aplicacao/isencao.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$C$62</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,193 +22,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Serial</t>
+  </si>
   <si>
     <t>pdv</t>
   </si>
   <si>
     <t>valor</t>
   </si>
-  <si>
-    <t>Serial</t>
-  </si>
-  <si>
-    <t>6P149470</t>
-  </si>
-  <si>
-    <t>6P149830</t>
-  </si>
-  <si>
-    <t>6P149522</t>
-  </si>
-  <si>
-    <t>6P149844</t>
-  </si>
-  <si>
-    <t>6P149872</t>
-  </si>
-  <si>
-    <t>6P150335</t>
-  </si>
-  <si>
-    <t>6P149140</t>
-  </si>
-  <si>
-    <t>6P150358</t>
-  </si>
-  <si>
-    <t>6P150045</t>
-  </si>
-  <si>
-    <t>6P149908</t>
-  </si>
-  <si>
-    <t>6P149643</t>
-  </si>
-  <si>
-    <t>6P150232</t>
-  </si>
-  <si>
-    <t>6P149124</t>
-  </si>
-  <si>
-    <t>6P149147</t>
-  </si>
-  <si>
-    <t>6P150548</t>
-  </si>
-  <si>
-    <t>6P150466</t>
-  </si>
-  <si>
-    <t>6P150266</t>
-  </si>
-  <si>
-    <t>6P150670</t>
-  </si>
-  <si>
-    <t>6P150634</t>
-  </si>
-  <si>
-    <t>6P150448</t>
-  </si>
-  <si>
-    <t>6P150178</t>
-  </si>
-  <si>
-    <t>6P149633</t>
-  </si>
-  <si>
-    <t>6P150528</t>
-  </si>
-  <si>
-    <t>6P149631</t>
-  </si>
-  <si>
-    <t>6P149980</t>
-  </si>
-  <si>
-    <t>6P149741</t>
-  </si>
-  <si>
-    <t>6P150347</t>
-  </si>
-  <si>
-    <t>6P150176</t>
-  </si>
-  <si>
-    <t>6P150527</t>
-  </si>
-  <si>
-    <t>6P149180</t>
-  </si>
-  <si>
-    <t>6P150399</t>
-  </si>
-  <si>
-    <t>6P149954</t>
-  </si>
-  <si>
-    <t>6P150922</t>
-  </si>
-  <si>
-    <t>6P149312</t>
-  </si>
-  <si>
-    <t>6P150925</t>
-  </si>
-  <si>
-    <t>6P149491</t>
-  </si>
-  <si>
-    <t>6P151002</t>
-  </si>
-  <si>
-    <t>6P149439</t>
-  </si>
-  <si>
-    <t>6P151003</t>
-  </si>
-  <si>
-    <t>6P149505</t>
-  </si>
-  <si>
-    <t>6P150911</t>
-  </si>
-  <si>
-    <t>6P149493</t>
-  </si>
-  <si>
-    <t>6P150253</t>
-  </si>
-  <si>
-    <t>6P149875</t>
-  </si>
-  <si>
-    <t>6P150932</t>
-  </si>
-  <si>
-    <t>6P150616</t>
-  </si>
-  <si>
-    <t>6P150402</t>
-  </si>
-  <si>
-    <t>6P764720</t>
-  </si>
-  <si>
-    <t>6P764653</t>
-  </si>
-  <si>
-    <t>6P764753</t>
-  </si>
-  <si>
-    <t>6P149977</t>
-  </si>
-  <si>
-    <t>6P149910</t>
-  </si>
-  <si>
-    <t>6P764499</t>
-  </si>
-  <si>
-    <t>6P764718</t>
-  </si>
-  <si>
-    <t>19.9</t>
-  </si>
-  <si>
-    <t>69.9</t>
-  </si>
-  <si>
-    <t>9.9</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,8 +60,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,19 +82,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -266,19 +112,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -561,727 +407,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFA552"/>
+  <dimension ref="A1:XFC552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="3" customWidth="1"/>
     <col min="4" max="16381" width="19.85546875" style="3" hidden="1"/>
-    <col min="16382" max="16384" width="9.140625" style="3" hidden="1"/>
+    <col min="16382" max="16383" width="9.140625" style="3" hidden="1"/>
+    <col min="16384" max="16384" width="4.42578125" style="3" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1470584982</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
+      <c r="B2" s="2">
+        <v>1360</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
+      <c r="C2" s="2">
+        <v>69.900000000000006</v>
       </c>
-      <c r="B2" s="5">
-        <v>55865</v>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1470584982</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>58</v>
+      <c r="B3" s="2">
+        <v>1360</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
+      <c r="C3" s="2">
+        <v>69.900000000000006</v>
       </c>
-      <c r="B3" s="5">
-        <v>55868</v>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1470584982</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>58</v>
+      <c r="B4" s="2">
+        <v>1360</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
+      <c r="C4" s="2">
+        <v>69.900000000000006</v>
       </c>
-      <c r="B4" s="5">
-        <v>55868</v>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1470584982</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>58</v>
+      <c r="B5" s="2">
+        <v>1360</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
+      <c r="C5" s="2">
+        <v>69.900000000000006</v>
       </c>
-      <c r="B5" s="5">
-        <v>55871</v>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1470584982</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>58</v>
+      <c r="B6" s="2">
+        <v>1360</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
+      <c r="C6" s="2">
+        <v>69.900000000000006</v>
       </c>
-      <c r="B6" s="5">
-        <v>55927</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5">
-        <v>55952</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5">
-        <v>55957</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5">
-        <v>56005</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5">
-        <v>56010</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5">
-        <v>56010</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="5">
-        <v>56049</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="5">
-        <v>56049</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="5">
-        <v>56054</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="5">
-        <v>56069</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="5">
-        <v>56069</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="5">
-        <v>56069</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="5">
-        <v>56069</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="5">
-        <v>56177</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="5">
-        <v>56177</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="5">
-        <v>56177</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="5">
-        <v>56177</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="5">
-        <v>56178</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="5">
-        <v>56178</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="5">
-        <v>56184</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>1470586732</v>
-      </c>
-      <c r="B26" s="5">
-        <v>56186</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>1470586122</v>
-      </c>
-      <c r="B27" s="5">
-        <v>56186</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>1470586731</v>
-      </c>
-      <c r="B28" s="5">
-        <v>56186</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5">
-        <v>56186</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="5">
-        <v>56207</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="5">
-        <v>56212</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="5">
-        <v>56243</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="5">
-        <v>56297</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="5">
-        <v>56298</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="5">
-        <v>56307</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="5">
-        <v>56307</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="5">
-        <v>56347</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="5">
-        <v>56351</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>1470586658</v>
-      </c>
-      <c r="B39" s="5">
-        <v>56360</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="5">
-        <v>56392</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="5">
-        <v>56392</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="5">
-        <v>56402</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="5">
-        <v>56403</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>1470586167</v>
-      </c>
-      <c r="B44" s="5">
-        <v>56426</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="5">
-        <v>56436</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="5">
-        <v>56460</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="5">
-        <v>56495</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="5">
-        <v>56496</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="5">
-        <v>56498</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="5">
-        <v>56555</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="5">
-        <v>56555</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>1470586816</v>
-      </c>
-      <c r="B52" s="5">
-        <v>56556</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="5">
-        <v>56557</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="5">
-        <v>56559</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="5">
-        <v>56563</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="5">
-        <v>56563</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="5">
-        <v>56563</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="5">
-        <v>56565</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="5">
-        <v>56599</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" s="5">
-        <v>56606</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" s="5">
-        <v>56606</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>1470586034</v>
-      </c>
-      <c r="B62" s="5">
-        <v>56655</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C68" s="4"/>

--- a/aplicacao/isencao.xlsx
+++ b/aplicacao/isencao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <dimension ref="A1:XFC552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,59 +435,29 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1470584982</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1360</v>
-      </c>
-      <c r="C2" s="2">
-        <v>69.900000000000006</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1470584982</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1360</v>
-      </c>
-      <c r="C3" s="2">
-        <v>69.900000000000006</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1470584982</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1360</v>
-      </c>
-      <c r="C4" s="2">
-        <v>69.900000000000006</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1470584982</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1360</v>
-      </c>
-      <c r="C5" s="2">
-        <v>69.900000000000006</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>1470584982</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1360</v>
-      </c>
-      <c r="C6" s="2">
-        <v>69.900000000000006</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>

--- a/aplicacao/isencao.xlsx
+++ b/aplicacao/isencao.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46B0A46-BCF6-4BBB-828F-D84AF5DF0675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05565255-ADC0-4596-BC58-3F25C5234FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$C$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$C$86</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Serial</t>
   </si>
@@ -43,6 +43,27 @@
   </si>
   <si>
     <t>valor</t>
+  </si>
+  <si>
+    <t>527-625-021</t>
+  </si>
+  <si>
+    <t>527-624-944</t>
+  </si>
+  <si>
+    <t>527-625-059</t>
+  </si>
+  <si>
+    <t>527-624-903</t>
+  </si>
+  <si>
+    <t>527-624-669</t>
+  </si>
+  <si>
+    <t>541-373-883</t>
+  </si>
+  <si>
+    <t>541-374-218</t>
   </si>
 </sst>
 </file>
@@ -405,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFC89"/>
+  <dimension ref="A1:XFC86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -433,33 +454,81 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1470586023</v>
+      <c r="A2" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="3">
-        <v>1360</v>
+        <v>31400</v>
       </c>
       <c r="C2" s="1">
-        <v>99.9</v>
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="3"/>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45036</v>
+      </c>
+      <c r="C3" s="1">
+        <v>69.900000000000006</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="3"/>
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>50206</v>
+      </c>
+      <c r="C4" s="1">
+        <v>69.900000000000006</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>43382</v>
+      </c>
+      <c r="C5" s="1">
+        <v>59.9</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50293</v>
+      </c>
+      <c r="C6" s="1">
+        <v>69.900000000000006</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>42502</v>
+      </c>
+      <c r="C7" s="1">
+        <v>69.900000000000006</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>42383</v>
+      </c>
+      <c r="C8" s="1">
+        <v>69.900000000000006</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
@@ -694,15 +763,6 @@
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B86" s="3"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" s="3"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" s="3"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
